--- a/data/old_posteriors/no_elementary_skills/simple_model/leak/constrained/results_model1a_leak_constrained.xlsx
+++ b/data/old_posteriors/no_elementary_skills/simple_model/leak/constrained/results_model1a_leak_constrained.xlsx
@@ -622,31 +622,31 @@
         <v>1.0</v>
       </c>
       <c r="E3" t="n" s="25">
-        <v>0.9981064170512541</v>
+        <v>0.9977443565714161</v>
       </c>
       <c r="F3" t="n" s="25">
-        <v>0.9994618644416928</v>
+        <v>0.9985115290118561</v>
       </c>
       <c r="G3" t="n" s="25">
-        <v>0.9997530951566175</v>
+        <v>0.9984835838592689</v>
       </c>
       <c r="H3" t="n" s="25">
-        <v>0.9925392480249772</v>
+        <v>0.9879841591186874</v>
       </c>
       <c r="I3" t="n" s="25">
-        <v>0.9867844052308052</v>
+        <v>0.9606625734397375</v>
       </c>
       <c r="J3" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9889043563314979</v>
       </c>
       <c r="K3" t="n" s="25">
-        <v>0.8413120378791656</v>
+        <v>0.7951615201418928</v>
       </c>
       <c r="L3" t="n" s="25">
-        <v>1.0</v>
+        <v>0.41607190383043935</v>
       </c>
       <c r="M3" t="n" s="25">
-        <v>1.0</v>
+        <v>5.824631564093028E-10</v>
       </c>
       <c r="N3" t="n" s="25">
         <v>0.5</v>
@@ -657,31 +657,31 @@
         <v>2.0</v>
       </c>
       <c r="E4" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F4" t="n" s="25">
-        <v>0.9999909568154958</v>
+        <v>0.9999701488634093</v>
       </c>
       <c r="G4" t="n" s="25">
-        <v>0.9999999965190549</v>
+        <v>0.9999998599289657</v>
       </c>
       <c r="H4" t="n" s="25">
-        <v>0.9992313084944262</v>
+        <v>0.9985768795621054</v>
       </c>
       <c r="I4" t="n" s="25">
-        <v>0.9999999942194959</v>
+        <v>0.9999998247013931</v>
       </c>
       <c r="J4" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999998197321517</v>
       </c>
       <c r="K4" t="n" s="25">
-        <v>0.9991956325678838</v>
+        <v>0.9976753177865405</v>
       </c>
       <c r="L4" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9993599212627551</v>
       </c>
       <c r="M4" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9780732167933316</v>
       </c>
       <c r="N4" t="n" s="25">
         <v>0.5</v>
@@ -692,31 +692,31 @@
         <v>3.0</v>
       </c>
       <c r="E5" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F5" t="n" s="25">
-        <v>0.9999946208549079</v>
+        <v>0.9999811175492781</v>
       </c>
       <c r="G5" t="n" s="25">
-        <v>0.9999999999830446</v>
+        <v>0.9999999990671342</v>
       </c>
       <c r="H5" t="n" s="25">
-        <v>0.9997834155981505</v>
+        <v>0.9995311813557107</v>
       </c>
       <c r="I5" t="n" s="25">
-        <v>0.9999999999985089</v>
+        <v>0.9999999999075941</v>
       </c>
       <c r="J5" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999997329</v>
       </c>
       <c r="K5" t="n" s="25">
-        <v>0.9999486056295442</v>
+        <v>0.9997785397007687</v>
       </c>
       <c r="L5" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999567859122</v>
       </c>
       <c r="M5" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999996009236659</v>
       </c>
       <c r="N5" t="n" s="25">
         <v>0.5</v>
@@ -727,31 +727,31 @@
         <v>4.0</v>
       </c>
       <c r="E6" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F6" t="n" s="25">
-        <v>0.9999946208549079</v>
+        <v>0.9999811175492781</v>
       </c>
       <c r="G6" t="n" s="25">
-        <v>0.9999999999830446</v>
+        <v>0.9999999990671342</v>
       </c>
       <c r="H6" t="n" s="25">
-        <v>0.9998474188275651</v>
+        <v>0.9996530646013675</v>
       </c>
       <c r="I6" t="n" s="25">
-        <v>0.999999999999532</v>
+        <v>0.9999999999654631</v>
       </c>
       <c r="J6" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999977</v>
       </c>
       <c r="K6" t="n" s="25">
-        <v>0.9999929355102812</v>
+        <v>0.9999585099746565</v>
       </c>
       <c r="L6" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999370837</v>
       </c>
       <c r="M6" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999975283814</v>
       </c>
       <c r="N6" t="n" s="25">
         <v>0.5</v>
@@ -762,31 +762,31 @@
         <v>5.0</v>
       </c>
       <c r="E7" t="n" s="25">
-        <v>0.9983262481363204</v>
+        <v>0.9979794107157651</v>
       </c>
       <c r="F7" t="n" s="25">
-        <v>0.9999898909407503</v>
+        <v>0.9999671876414535</v>
       </c>
       <c r="G7" t="n" s="25">
-        <v>0.9999999911535618</v>
+        <v>0.9999996943618159</v>
       </c>
       <c r="H7" t="n" s="25">
-        <v>0.9996550691629528</v>
+        <v>0.9992925619323871</v>
       </c>
       <c r="I7" t="n" s="25">
-        <v>0.9999999958795568</v>
+        <v>0.9999998379052105</v>
       </c>
       <c r="J7" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999061779522</v>
       </c>
       <c r="K7" t="n" s="25">
-        <v>0.999625516840641</v>
+        <v>0.9984737226144984</v>
       </c>
       <c r="L7" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9998478955060214</v>
       </c>
       <c r="M7" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9992196841321765</v>
       </c>
       <c r="N7" t="n" s="25">
         <v>0.5</v>
@@ -797,31 +797,31 @@
         <v>6.0</v>
       </c>
       <c r="E8" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F8" t="n" s="25">
-        <v>0.9999909568154958</v>
+        <v>0.9999701488634093</v>
       </c>
       <c r="G8" t="n" s="25">
-        <v>0.9999999965190549</v>
+        <v>0.9999998599289657</v>
       </c>
       <c r="H8" t="n" s="25">
-        <v>0.9985553953512112</v>
+        <v>0.997555765030834</v>
       </c>
       <c r="I8" t="n" s="25">
-        <v>0.9999999457168222</v>
+        <v>0.9999988640368334</v>
       </c>
       <c r="J8" t="n" s="25">
-        <v>0.9999999985415914</v>
+        <v>0.9999998089921946</v>
       </c>
       <c r="K8" t="n" s="25">
-        <v>0.9620812584456175</v>
+        <v>0.9432928890444416</v>
       </c>
       <c r="L8" t="n" s="25">
-        <v>0.984595563079996</v>
+        <v>0.9706374905547317</v>
       </c>
       <c r="M8" t="n" s="25">
-        <v>0.028553997500158832</v>
+        <v>0.001191681151162678</v>
       </c>
       <c r="N8" t="n" s="25">
         <v>0.5</v>
@@ -832,31 +832,31 @@
         <v>7.0</v>
       </c>
       <c r="E9" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F9" t="n" s="25">
-        <v>0.9999946208549079</v>
+        <v>0.9999811175492781</v>
       </c>
       <c r="G9" t="n" s="25">
-        <v>0.9999999999830446</v>
+        <v>0.9999999990671342</v>
       </c>
       <c r="H9" t="n" s="25">
-        <v>0.9998931872402071</v>
+        <v>0.9997448373970694</v>
       </c>
       <c r="I9" t="n" s="25">
-        <v>0.9999999999998533</v>
+        <v>0.9999999999871131</v>
       </c>
       <c r="J9" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K9" t="n" s="25">
-        <v>0.9999990297532771</v>
+        <v>0.9999922409658388</v>
       </c>
       <c r="L9" t="n" s="25">
-        <v>1.0</v>
+        <v>0.999999999999907</v>
       </c>
       <c r="M9" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999845792</v>
       </c>
       <c r="N9" t="n" s="25">
         <v>0.5</v>
@@ -867,31 +867,31 @@
         <v>8.0</v>
       </c>
       <c r="E10" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F10" t="n" s="25">
-        <v>0.9999909568154958</v>
+        <v>0.9999701488634093</v>
       </c>
       <c r="G10" t="n" s="25">
-        <v>0.9999999965190549</v>
+        <v>0.9999998599289657</v>
       </c>
       <c r="H10" t="n" s="25">
-        <v>0.9994515317922863</v>
+        <v>0.9989343615921884</v>
       </c>
       <c r="I10" t="n" s="25">
-        <v>0.9999999981765203</v>
+        <v>0.999999933915216</v>
       </c>
       <c r="J10" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999747124344</v>
       </c>
       <c r="K10" t="n" s="25">
-        <v>0.999888795700597</v>
+        <v>0.999559961189558</v>
       </c>
       <c r="L10" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999860337742027</v>
       </c>
       <c r="M10" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9998661857540465</v>
       </c>
       <c r="N10" t="n" s="25">
         <v>0.5</v>
@@ -902,31 +902,31 @@
         <v>9.0</v>
       </c>
       <c r="E11" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F11" t="n" s="25">
-        <v>0.999976402856821</v>
+        <v>0.9999316278189647</v>
       </c>
       <c r="G11" t="n" s="25">
-        <v>0.9999941257326989</v>
+        <v>0.9999106726928656</v>
       </c>
       <c r="H11" t="n" s="25">
-        <v>0.9998474188275651</v>
+        <v>0.9996530646013675</v>
       </c>
       <c r="I11" t="n" s="25">
-        <v>0.9999993005648026</v>
+        <v>0.9999781808956162</v>
       </c>
       <c r="J11" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999614322040952</v>
       </c>
       <c r="K11" t="n" s="25">
-        <v>0.9991722977929823</v>
+        <v>0.9956798369252416</v>
       </c>
       <c r="L11" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9991509017355363</v>
       </c>
       <c r="M11" t="n" s="25">
-        <v>1.0</v>
+        <v>0.5262544629980003</v>
       </c>
       <c r="N11" t="n" s="25">
         <v>0.5</v>
@@ -937,31 +937,31 @@
         <v>10.0</v>
       </c>
       <c r="E12" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F12" t="n" s="25">
-        <v>0.9999946208549079</v>
+        <v>0.9999811175492781</v>
       </c>
       <c r="G12" t="n" s="25">
-        <v>0.9999999999830446</v>
+        <v>0.9999999990671342</v>
       </c>
       <c r="H12" t="n" s="25">
-        <v>0.9998931872402071</v>
+        <v>0.9997448373970694</v>
       </c>
       <c r="I12" t="n" s="25">
-        <v>0.9999999999998533</v>
+        <v>0.9999999999871131</v>
       </c>
       <c r="J12" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K12" t="n" s="25">
-        <v>0.9999990297532771</v>
+        <v>0.9999922409658388</v>
       </c>
       <c r="L12" t="n" s="25">
-        <v>1.0</v>
+        <v>0.999999999999907</v>
       </c>
       <c r="M12" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999845792</v>
       </c>
       <c r="N12" t="n" s="25">
         <v>0.5</v>
@@ -972,31 +972,31 @@
         <v>11.0</v>
       </c>
       <c r="E13" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F13" t="n" s="25">
-        <v>0.9913164744861723</v>
+        <v>0.9842409820032043</v>
       </c>
       <c r="G13" t="n" s="25">
-        <v>0.2439281076139148</v>
+        <v>0.19202863891251573</v>
       </c>
       <c r="H13" t="n" s="25">
-        <v>0.999754837460003</v>
+        <v>0.9993693925353998</v>
       </c>
       <c r="I13" t="n" s="25">
-        <v>0.9998218013236</v>
+        <v>0.9979883876908952</v>
       </c>
       <c r="J13" t="n" s="25">
-        <v>1.0</v>
+        <v>5.689361811438226E-4</v>
       </c>
       <c r="K13" t="n" s="25">
-        <v>0.9999456316089276</v>
+        <v>0.9993259627981805</v>
       </c>
       <c r="L13" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9998754784823644</v>
       </c>
       <c r="M13" t="n" s="25">
-        <v>1.0</v>
+        <v>3.2561763127383704E-12</v>
       </c>
       <c r="N13" t="n" s="25">
         <v>0.5</v>
@@ -1007,31 +1007,31 @@
         <v>12.0</v>
       </c>
       <c r="E14" t="n" s="25">
-        <v>0.9985217895258434</v>
+        <v>0.998191269788162</v>
       </c>
       <c r="F14" t="n" s="25">
-        <v>0.9998438749402679</v>
+        <v>0.9996523855211574</v>
       </c>
       <c r="G14" t="n" s="25">
-        <v>0.948467372828872</v>
+        <v>0.9221871189724818</v>
       </c>
       <c r="H14" t="n" s="25">
-        <v>0.9997331886236387</v>
+        <v>0.9994463379135299</v>
       </c>
       <c r="I14" t="n" s="25">
-        <v>0.9996097191528622</v>
+        <v>0.9988530447632112</v>
       </c>
       <c r="J14" t="n" s="25">
-        <v>0.018154468447830273</v>
+        <v>0.0029964206884660434</v>
       </c>
       <c r="K14" t="n" s="25">
-        <v>0.8772403599607949</v>
+        <v>0.8420145484615105</v>
       </c>
       <c r="L14" t="n" s="25">
-        <v>0.008472150029557868</v>
+        <v>0.002263336147543131</v>
       </c>
       <c r="M14" t="n" s="25">
-        <v>9.842198349855737E-25</v>
+        <v>5.575473788500377E-26</v>
       </c>
       <c r="N14" t="n" s="25">
         <v>0.5</v>
@@ -1042,31 +1042,31 @@
         <v>13.0</v>
       </c>
       <c r="E15" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F15" t="n" s="25">
-        <v>0.9999603300026595</v>
+        <v>0.9998919139961793</v>
       </c>
       <c r="G15" t="n" s="25">
-        <v>0.9996392793477029</v>
+        <v>0.9986889964017193</v>
       </c>
       <c r="H15" t="n" s="25">
-        <v>0.9992313084944262</v>
+        <v>0.9985768795621054</v>
       </c>
       <c r="I15" t="n" s="25">
-        <v>0.9979438218525397</v>
+        <v>0.9946897346833062</v>
       </c>
       <c r="J15" t="n" s="25">
-        <v>1.0</v>
+        <v>0.8770469462473387</v>
       </c>
       <c r="K15" t="n" s="25">
-        <v>0.9300262959175584</v>
+        <v>0.8928397998181559</v>
       </c>
       <c r="L15" t="n" s="25">
-        <v>1.0</v>
+        <v>0.7021698551094094</v>
       </c>
       <c r="M15" t="n" s="25">
-        <v>1.0</v>
+        <v>4.2799041420288426E-11</v>
       </c>
       <c r="N15" t="n" s="25">
         <v>0.5</v>
@@ -1077,31 +1077,31 @@
         <v>14.0</v>
       </c>
       <c r="E16" t="n" s="25">
-        <v>0.9985217895258434</v>
+        <v>0.998191269788162</v>
       </c>
       <c r="F16" t="n" s="25">
-        <v>0.9999622057257918</v>
+        <v>0.9998975839828073</v>
       </c>
       <c r="G16" t="n" s="25">
-        <v>0.9999995985010368</v>
+        <v>0.9999953903731004</v>
       </c>
       <c r="H16" t="n" s="25">
-        <v>0.9999331641419643</v>
+        <v>0.9998315226669401</v>
       </c>
       <c r="I16" t="n" s="25">
-        <v>0.9999999999899484</v>
+        <v>0.9999999995378024</v>
       </c>
       <c r="J16" t="n" s="25">
-        <v>0.9999999863124417</v>
+        <v>0.9999994128074505</v>
       </c>
       <c r="K16" t="n" s="25">
-        <v>0.9999993401518464</v>
+        <v>0.9999944979949288</v>
       </c>
       <c r="L16" t="n" s="25">
-        <v>0.9999999731032503</v>
+        <v>0.99999928560199</v>
       </c>
       <c r="M16" t="n" s="25">
-        <v>0.9858359425747913</v>
+        <v>0.5979177216771808</v>
       </c>
       <c r="N16" t="n" s="25">
         <v>0.5</v>
@@ -1112,31 +1112,31 @@
         <v>15.0</v>
       </c>
       <c r="E17" t="n" s="25">
-        <v>0.9983262481363204</v>
+        <v>0.9979794107157651</v>
       </c>
       <c r="F17" t="n" s="25">
-        <v>0.9999930211790713</v>
+        <v>0.9999762422437555</v>
       </c>
       <c r="G17" t="n" s="25">
-        <v>0.9999999997570312</v>
+        <v>0.9999999885609974</v>
       </c>
       <c r="H17" t="n" s="25">
-        <v>0.9996550691629528</v>
+        <v>0.9992925619323871</v>
       </c>
       <c r="I17" t="n" s="25">
-        <v>0.9999999999478631</v>
+        <v>0.99999999752743</v>
       </c>
       <c r="J17" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999129989</v>
       </c>
       <c r="K17" t="n" s="25">
-        <v>0.999924419156418</v>
+        <v>0.9996878631012607</v>
       </c>
       <c r="L17" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999991779974696</v>
       </c>
       <c r="M17" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999927194603087</v>
       </c>
       <c r="N17" t="n" s="25">
         <v>0.5</v>
@@ -1147,31 +1147,31 @@
         <v>16.0</v>
       </c>
       <c r="E18" t="n" s="25">
-        <v>0.9985217895258434</v>
+        <v>0.998191269788162</v>
       </c>
       <c r="F18" t="n" s="25">
-        <v>0.9999958577660113</v>
+        <v>0.9999850087264472</v>
       </c>
       <c r="G18" t="n" s="25">
-        <v>0.9999999999988168</v>
+        <v>0.9999999999239322</v>
       </c>
       <c r="H18" t="n" s="25">
-        <v>0.9999331641419643</v>
+        <v>0.9998315226669401</v>
       </c>
       <c r="I18" t="n" s="25">
-        <v>0.9999999999999959</v>
+        <v>0.9999999999995187</v>
       </c>
       <c r="J18" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K18" t="n" s="25">
-        <v>0.9999993401518464</v>
+        <v>0.9999944979949288</v>
       </c>
       <c r="L18" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999951</v>
       </c>
       <c r="M18" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999991507</v>
       </c>
       <c r="N18" t="n" s="25">
         <v>0.5</v>
@@ -1182,31 +1182,31 @@
         <v>17.0</v>
       </c>
       <c r="E19" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F19" t="n" s="25">
-        <v>0.9999946208549079</v>
+        <v>0.9999811175492781</v>
       </c>
       <c r="G19" t="n" s="25">
-        <v>0.9999999999830446</v>
+        <v>0.9999999990671342</v>
       </c>
       <c r="H19" t="n" s="25">
-        <v>0.9998474188275651</v>
+        <v>0.9996530646013675</v>
       </c>
       <c r="I19" t="n" s="25">
-        <v>0.999999999999532</v>
+        <v>0.9999999999654631</v>
       </c>
       <c r="J19" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999977</v>
       </c>
       <c r="K19" t="n" s="25">
-        <v>0.9999929355102812</v>
+        <v>0.9999585099746565</v>
       </c>
       <c r="L19" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999370837</v>
       </c>
       <c r="M19" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999975283814</v>
       </c>
       <c r="N19" t="n" s="25">
         <v>0.5</v>
@@ -1217,31 +1217,31 @@
         <v>18.0</v>
       </c>
       <c r="E20" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F20" t="n" s="25">
-        <v>0.9999946208549079</v>
+        <v>0.9999811175492781</v>
       </c>
       <c r="G20" t="n" s="25">
-        <v>0.9999999999830446</v>
+        <v>0.9999999990671342</v>
       </c>
       <c r="H20" t="n" s="25">
-        <v>0.9997834155981505</v>
+        <v>0.9995311813557107</v>
       </c>
       <c r="I20" t="n" s="25">
-        <v>0.9999999999985089</v>
+        <v>0.9999999999075941</v>
       </c>
       <c r="J20" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999997329</v>
       </c>
       <c r="K20" t="n" s="25">
-        <v>0.9999486056295442</v>
+        <v>0.9997785397007687</v>
       </c>
       <c r="L20" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999567859122</v>
       </c>
       <c r="M20" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999996009236659</v>
       </c>
       <c r="N20" t="n" s="25">
         <v>0.5</v>
@@ -1252,31 +1252,31 @@
         <v>19.0</v>
       </c>
       <c r="E21" t="n" s="25">
-        <v>0.9985217895258434</v>
+        <v>0.998191269788162</v>
       </c>
       <c r="F21" t="n" s="25">
-        <v>0.9999958577660113</v>
+        <v>0.9999850087264472</v>
       </c>
       <c r="G21" t="n" s="25">
-        <v>0.9999999999988168</v>
+        <v>0.9999999999239322</v>
       </c>
       <c r="H21" t="n" s="25">
-        <v>0.9999534530232478</v>
+        <v>0.9998767474440522</v>
       </c>
       <c r="I21" t="n" s="25">
-        <v>0.9999999999999988</v>
+        <v>0.9999999999998206</v>
       </c>
       <c r="J21" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K21" t="n" s="25">
-        <v>0.9999999094011967</v>
+        <v>0.9999989718191002</v>
       </c>
       <c r="L21" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="M21" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999948</v>
       </c>
       <c r="N21" t="n" s="25">
         <v>0.5</v>
@@ -1287,31 +1287,31 @@
         <v>20.0</v>
       </c>
       <c r="E22" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F22" t="n" s="25">
-        <v>0.9999946208549079</v>
+        <v>0.9999811175492781</v>
       </c>
       <c r="G22" t="n" s="25">
-        <v>0.9999999999830446</v>
+        <v>0.9999999990671342</v>
       </c>
       <c r="H22" t="n" s="25">
-        <v>0.9998474188275651</v>
+        <v>0.9996530646013675</v>
       </c>
       <c r="I22" t="n" s="25">
-        <v>0.999999999999532</v>
+        <v>0.9999999999654631</v>
       </c>
       <c r="J22" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999977</v>
       </c>
       <c r="K22" t="n" s="25">
-        <v>0.9999929355102812</v>
+        <v>0.9999585099746565</v>
       </c>
       <c r="L22" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999370837</v>
       </c>
       <c r="M22" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999975283814</v>
       </c>
       <c r="N22" t="n" s="25">
         <v>0.5</v>
@@ -1322,31 +1322,31 @@
         <v>21.0</v>
       </c>
       <c r="E23" t="n" s="25">
-        <v>0.9985217895258434</v>
+        <v>0.998191269788162</v>
       </c>
       <c r="F23" t="n" s="25">
-        <v>0.9999958577660113</v>
+        <v>0.9999850087264472</v>
       </c>
       <c r="G23" t="n" s="25">
-        <v>0.9999999999988168</v>
+        <v>0.9999999999239322</v>
       </c>
       <c r="H23" t="n" s="25">
-        <v>0.9999044373807121</v>
+        <v>0.9997707073770833</v>
       </c>
       <c r="I23" t="n" s="25">
-        <v>0.9999999999999867</v>
+        <v>0.9999999999987098</v>
       </c>
       <c r="J23" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K23" t="n" s="25">
-        <v>0.9999951951443663</v>
+        <v>0.9999705726530517</v>
       </c>
       <c r="L23" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999967039</v>
       </c>
       <c r="M23" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999998639816</v>
       </c>
       <c r="N23" t="n" s="25">
         <v>0.5</v>
@@ -1357,31 +1357,31 @@
         <v>22.0</v>
       </c>
       <c r="E24" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F24" t="n" s="25">
-        <v>0.9999946208549079</v>
+        <v>0.9999811175492781</v>
       </c>
       <c r="G24" t="n" s="25">
-        <v>0.9999999999830446</v>
+        <v>0.9999999990671342</v>
       </c>
       <c r="H24" t="n" s="25">
-        <v>0.9998474188275651</v>
+        <v>0.9996530646013675</v>
       </c>
       <c r="I24" t="n" s="25">
-        <v>0.999999999999532</v>
+        <v>0.9999999999654631</v>
       </c>
       <c r="J24" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999977</v>
       </c>
       <c r="K24" t="n" s="25">
-        <v>0.9999929355102812</v>
+        <v>0.9999585099746565</v>
       </c>
       <c r="L24" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999370837</v>
       </c>
       <c r="M24" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999975283814</v>
       </c>
       <c r="N24" t="n" s="25">
         <v>0.5</v>
@@ -1392,31 +1392,31 @@
         <v>23.0</v>
       </c>
       <c r="E25" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F25" t="n" s="25">
-        <v>0.9999922081199646</v>
+        <v>0.9999739209844484</v>
       </c>
       <c r="G25" t="n" s="25">
-        <v>0.9999999993825058</v>
+        <v>0.9999999750362646</v>
       </c>
       <c r="H25" t="n" s="25">
-        <v>0.9997834155981505</v>
+        <v>0.9995311813557107</v>
       </c>
       <c r="I25" t="n" s="25">
-        <v>0.9999999998818861</v>
+        <v>0.9999999939062583</v>
       </c>
       <c r="J25" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999995106952</v>
       </c>
       <c r="K25" t="n" s="25">
-        <v>0.9997448118304716</v>
+        <v>0.9989120013092899</v>
       </c>
       <c r="L25" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999864185635225</v>
       </c>
       <c r="M25" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999582430501192</v>
       </c>
       <c r="N25" t="n" s="25">
         <v>0.5</v>
@@ -1427,31 +1427,31 @@
         <v>24.0</v>
       </c>
       <c r="E26" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F26" t="n" s="25">
-        <v>0.8889975994387574</v>
+        <v>0.8559571606741457</v>
       </c>
       <c r="G26" t="n" s="25">
-        <v>0.25954582305414003</v>
+        <v>0.13091017554279608</v>
       </c>
       <c r="H26" t="n" s="25">
-        <v>0.9664776658482341</v>
+        <v>0.9544030394487568</v>
       </c>
       <c r="I26" t="n" s="25">
-        <v>0.7568451345627305</v>
+        <v>0.5748518989618917</v>
       </c>
       <c r="J26" t="n" s="25">
-        <v>1.0</v>
+        <v>2.2412693510239157E-7</v>
       </c>
       <c r="K26" t="n" s="25">
-        <v>0.8321718603987127</v>
+        <v>0.7932902609322278</v>
       </c>
       <c r="L26" t="n" s="25">
-        <v>1.0</v>
+        <v>7.4634311619116855E-6</v>
       </c>
       <c r="M26" t="n" s="25">
-        <v>1.0</v>
+        <v>2.8319201284251153E-27</v>
       </c>
       <c r="N26" t="n" s="25">
         <v>0.5</v>
@@ -1462,31 +1462,31 @@
         <v>25.0</v>
       </c>
       <c r="E27" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F27" t="n" s="25">
-        <v>0.9954590012267681</v>
+        <v>0.9912858231549136</v>
       </c>
       <c r="G27" t="n" s="25">
-        <v>0.6171422634022498</v>
+        <v>0.5429281460491926</v>
       </c>
       <c r="H27" t="n" s="25">
-        <v>0.9985565449066184</v>
+        <v>0.9970975974146227</v>
       </c>
       <c r="I27" t="n" s="25">
-        <v>0.9963565524054008</v>
+        <v>0.990185486552888</v>
       </c>
       <c r="J27" t="n" s="25">
-        <v>1.487378566101856E-5</v>
+        <v>3.6645740851303282E-6</v>
       </c>
       <c r="K27" t="n" s="25">
-        <v>0.9352918747966183</v>
+        <v>0.9050932171985204</v>
       </c>
       <c r="L27" t="n" s="25">
-        <v>0.008991426523946487</v>
+        <v>0.0014431375151511571</v>
       </c>
       <c r="M27" t="n" s="25">
-        <v>1.2448720497588487E-28</v>
+        <v>7.845838094343621E-30</v>
       </c>
       <c r="N27" t="n" s="25">
         <v>0.5</v>
@@ -1497,31 +1497,31 @@
         <v>26.0</v>
       </c>
       <c r="E28" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F28" t="n" s="25">
-        <v>0.9999869006520952</v>
+        <v>0.9999587720358767</v>
       </c>
       <c r="G28" t="n" s="25">
-        <v>0.9999998736928524</v>
+        <v>0.9999963268728049</v>
       </c>
       <c r="H28" t="n" s="25">
-        <v>0.9994515317922863</v>
+        <v>0.9989343615921884</v>
       </c>
       <c r="I28" t="n" s="25">
-        <v>0.9999998567593225</v>
+        <v>0.999995771238309</v>
       </c>
       <c r="J28" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999949303625103</v>
       </c>
       <c r="K28" t="n" s="25">
-        <v>0.9994505411506311</v>
+        <v>0.9978610935243258</v>
       </c>
       <c r="L28" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9995197108776059</v>
       </c>
       <c r="M28" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9843439963993176</v>
       </c>
       <c r="N28" t="n" s="25">
         <v>0.5</v>
@@ -1532,31 +1532,31 @@
         <v>27.0</v>
       </c>
       <c r="E29" t="n" s="25">
-        <v>0.9979865926771708</v>
+        <v>0.9976174652962008</v>
       </c>
       <c r="F29" t="n" s="25">
-        <v>0.9999848936701132</v>
+        <v>0.9999531319369528</v>
       </c>
       <c r="G29" t="n" s="25">
-        <v>0.999999319505125</v>
+        <v>0.9999831210761809</v>
       </c>
       <c r="H29" t="n" s="25">
-        <v>0.9973577466310172</v>
+        <v>0.995807563071868</v>
       </c>
       <c r="I29" t="n" s="25">
-        <v>0.9999792771008944</v>
+        <v>0.9997438986472116</v>
       </c>
       <c r="J29" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9998584354738478</v>
       </c>
       <c r="K29" t="n" s="25">
-        <v>0.9879027916516379</v>
+        <v>0.9770147563333503</v>
       </c>
       <c r="L29" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9885763513154346</v>
       </c>
       <c r="M29" t="n" s="25">
-        <v>1.0</v>
+        <v>3.221872510820017E-4</v>
       </c>
       <c r="N29" t="n" s="25">
         <v>0.5</v>
@@ -1567,31 +1567,31 @@
         <v>28.0</v>
       </c>
       <c r="E30" t="n" s="25">
-        <v>0.9979865926771708</v>
+        <v>0.9976174652962008</v>
       </c>
       <c r="F30" t="n" s="25">
-        <v>0.8556345580970114</v>
+        <v>0.8263662239750341</v>
       </c>
       <c r="G30" t="n" s="25">
-        <v>0.013267991351058498</v>
+        <v>0.007509899870678616</v>
       </c>
       <c r="H30" t="n" s="25">
-        <v>0.9174440168887784</v>
+        <v>0.903852295484993</v>
       </c>
       <c r="I30" t="n" s="25">
-        <v>0.1501401835930863</v>
+        <v>0.08290540691231701</v>
       </c>
       <c r="J30" t="n" s="25">
-        <v>2.880821750543514E-14</v>
+        <v>3.7252332168990945E-15</v>
       </c>
       <c r="K30" t="n" s="25">
-        <v>0.6291435557205118</v>
+        <v>0.6064317195024236</v>
       </c>
       <c r="L30" t="n" s="25">
-        <v>2.0723359781252278E-10</v>
+        <v>9.53079866712186E-11</v>
       </c>
       <c r="M30" t="n" s="25">
-        <v>2.262437852361122E-44</v>
+        <v>3.107068286487288E-45</v>
       </c>
       <c r="N30" t="n" s="25">
         <v>0.5</v>
@@ -1602,31 +1602,31 @@
         <v>29.0</v>
       </c>
       <c r="E31" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F31" t="n" s="25">
-        <v>0.9999946208549079</v>
+        <v>0.9999811175492781</v>
       </c>
       <c r="G31" t="n" s="25">
-        <v>0.9999999999830446</v>
+        <v>0.9999999990671342</v>
       </c>
       <c r="H31" t="n" s="25">
-        <v>0.9998931872402071</v>
+        <v>0.9997448373970694</v>
       </c>
       <c r="I31" t="n" s="25">
-        <v>0.9999999999998533</v>
+        <v>0.9999999999871131</v>
       </c>
       <c r="J31" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K31" t="n" s="25">
-        <v>0.9999990297532771</v>
+        <v>0.9999922409658388</v>
       </c>
       <c r="L31" t="n" s="25">
-        <v>1.0</v>
+        <v>0.999999999999907</v>
       </c>
       <c r="M31" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999845792</v>
       </c>
       <c r="N31" t="n" s="25">
         <v>0.5</v>
@@ -1637,31 +1637,31 @@
         <v>30.0</v>
       </c>
       <c r="E32" t="n" s="25">
-        <v>0.9979865926771708</v>
+        <v>0.9976174652962008</v>
       </c>
       <c r="F32" t="n" s="25">
-        <v>0.8511565712377399</v>
+        <v>0.8223973771406958</v>
       </c>
       <c r="G32" t="n" s="25">
-        <v>0.0011764011403531678</v>
+        <v>7.578678760552885E-4</v>
       </c>
       <c r="H32" t="n" s="25">
-        <v>0.9150286220565971</v>
+        <v>0.9017429619063677</v>
       </c>
       <c r="I32" t="n" s="25">
-        <v>0.03412711800896625</v>
+        <v>0.017758930413012047</v>
       </c>
       <c r="J32" t="n" s="25">
-        <v>1.7694666726422373E-17</v>
+        <v>2.607002658699714E-18</v>
       </c>
       <c r="K32" t="n" s="25">
-        <v>0.6291435547578894</v>
+        <v>0.6064317187546242</v>
       </c>
       <c r="L32" t="n" s="25">
-        <v>8.356005647292501E-12</v>
+        <v>3.835613169741014E-12</v>
       </c>
       <c r="M32" t="n" s="25">
-        <v>3.0658564996744876E-48</v>
+        <v>4.714271632480154E-49</v>
       </c>
       <c r="N32" t="n" s="25">
         <v>0.5</v>
@@ -1672,31 +1672,31 @@
         <v>31.0</v>
       </c>
       <c r="E33" t="n" s="25">
-        <v>0.009266668946168689</v>
+        <v>0.009123063346382548</v>
       </c>
       <c r="F33" t="n" s="25">
-        <v>1.979926584045085E-6</v>
+        <v>1.7026878936178744E-6</v>
       </c>
       <c r="G33" t="n" s="25">
-        <v>6.011128698025714E-12</v>
+        <v>4.429693315349373E-12</v>
       </c>
       <c r="H33" t="n" s="25">
-        <v>9.899581396654247E-6</v>
+        <v>8.513402112371778E-6</v>
       </c>
       <c r="I33" t="n" s="25">
-        <v>3.5423078438420565E-15</v>
+        <v>1.460622345375879E-15</v>
       </c>
       <c r="J33" t="n" s="25">
-        <v>1.1131765945750257E-31</v>
+        <v>2.6008776925950955E-32</v>
       </c>
       <c r="K33" t="n" s="25">
-        <v>7.512445634676307E-10</v>
+        <v>5.536106715735254E-10</v>
       </c>
       <c r="L33" t="n" s="25">
-        <v>1.3914697987245262E-29</v>
+        <v>3.251095146482496E-30</v>
       </c>
       <c r="M33" t="n" s="25">
-        <v>5.189001835705075E-66</v>
+        <v>7.103422339502726E-67</v>
       </c>
       <c r="N33" t="n" s="25">
         <v>0.5</v>
@@ -1707,31 +1707,31 @@
         <v>32.0</v>
       </c>
       <c r="E34" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F34" t="n" s="25">
-        <v>0.8850287460780594</v>
+        <v>0.852611324187856</v>
       </c>
       <c r="G34" t="n" s="25">
-        <v>0.01273129857168232</v>
+        <v>0.009413260619676315</v>
       </c>
       <c r="H34" t="n" s="25">
-        <v>0.9664776658482341</v>
+        <v>0.9544030394487568</v>
       </c>
       <c r="I34" t="n" s="25">
-        <v>0.7568414169563584</v>
+        <v>0.5748491391854469</v>
       </c>
       <c r="J34" t="n" s="25">
-        <v>2.0341626319028034E-12</v>
+        <v>4.3884743554632837E-13</v>
       </c>
       <c r="K34" t="n" s="25">
-        <v>0.8321694428393543</v>
+        <v>0.7932885519645734</v>
       </c>
       <c r="L34" t="n" s="25">
-        <v>2.517369896281576E-7</v>
+        <v>5.970789135602451E-8</v>
       </c>
       <c r="M34" t="n" s="25">
-        <v>1.9165895991345517E-40</v>
+        <v>2.3807958740335745E-41</v>
       </c>
       <c r="N34" t="n" s="25">
         <v>0.5</v>
@@ -1742,31 +1742,31 @@
         <v>33.0</v>
       </c>
       <c r="E35" t="n" s="25">
-        <v>3.6086604558494386E-4</v>
+        <v>3.564936810689297E-4</v>
       </c>
       <c r="F35" t="n" s="25">
-        <v>5.422771881406634E-10</v>
+        <v>4.761356405662058E-10</v>
       </c>
       <c r="G35" t="n" s="25">
-        <v>1.406330788597638E-16</v>
+        <v>9.270799708492747E-17</v>
       </c>
       <c r="H35" t="n" s="25">
-        <v>2.7113859357161596E-9</v>
+        <v>2.3806781990865316E-9</v>
       </c>
       <c r="I35" t="n" s="25">
-        <v>3.448214824406168E-24</v>
+        <v>1.707888913803995E-24</v>
       </c>
       <c r="J35" t="n" s="25">
-        <v>1.5315432963316067E-44</v>
+        <v>3.788739495668357E-45</v>
       </c>
       <c r="K35" t="n" s="25">
-        <v>6.743544723210644E-16</v>
+        <v>5.821383748383949E-16</v>
       </c>
       <c r="L35" t="n" s="25">
-        <v>1.0655668370527086E-44</v>
+        <v>5.137238266569218E-45</v>
       </c>
       <c r="M35" t="n" s="25">
-        <v>3.606122746415143E-85</v>
+        <v>8.750603762731429E-86</v>
       </c>
       <c r="N35" t="n" s="25">
         <v>0.5</v>
@@ -1777,31 +1777,31 @@
         <v>34.0</v>
       </c>
       <c r="E36" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F36" t="n" s="25">
-        <v>0.8850287460780594</v>
+        <v>0.852611324187856</v>
       </c>
       <c r="G36" t="n" s="25">
-        <v>0.012731298569436385</v>
+        <v>0.009413260618673173</v>
       </c>
       <c r="H36" t="n" s="25">
-        <v>0.9549716415050771</v>
+        <v>0.9414484015845368</v>
       </c>
       <c r="I36" t="n" s="25">
-        <v>0.7568413928436144</v>
+        <v>0.5748491201497486</v>
       </c>
       <c r="J36" t="n" s="25">
-        <v>4.068325263812227E-13</v>
+        <v>8.776948710929646E-14</v>
       </c>
       <c r="K36" t="n" s="25">
-        <v>0.684697513250398</v>
+        <v>0.657923120492643</v>
       </c>
       <c r="L36" t="n" s="25">
-        <v>4.508643114552588E-9</v>
+        <v>1.7656550892484958E-9</v>
       </c>
       <c r="M36" t="n" s="25">
-        <v>1.8445976440319179E-44</v>
+        <v>3.64844787873424E-45</v>
       </c>
       <c r="N36" t="n" s="25">
         <v>0.5</v>
@@ -1812,31 +1812,31 @@
         <v>35.0</v>
       </c>
       <c r="E37" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F37" t="n" s="25">
-        <v>0.8850287460780594</v>
+        <v>0.852611324187856</v>
       </c>
       <c r="G37" t="n" s="25">
-        <v>0.01273129857168232</v>
+        <v>0.009413260619676315</v>
       </c>
       <c r="H37" t="n" s="25">
-        <v>0.9664776658482341</v>
+        <v>0.9544030394487568</v>
       </c>
       <c r="I37" t="n" s="25">
-        <v>0.7568414169563584</v>
+        <v>0.5748491391854469</v>
       </c>
       <c r="J37" t="n" s="25">
-        <v>2.0341626319028034E-12</v>
+        <v>4.3884743554632837E-13</v>
       </c>
       <c r="K37" t="n" s="25">
-        <v>0.8321694428393543</v>
+        <v>0.7932885519645734</v>
       </c>
       <c r="L37" t="n" s="25">
-        <v>2.517369896281576E-7</v>
+        <v>5.970789135602451E-8</v>
       </c>
       <c r="M37" t="n" s="25">
-        <v>1.9165895991345517E-40</v>
+        <v>2.3807958740335745E-41</v>
       </c>
       <c r="N37" t="n" s="25">
         <v>0.5</v>
@@ -1847,31 +1847,31 @@
         <v>36.0</v>
       </c>
       <c r="E38" t="n" s="25">
-        <v>0.9983262481363204</v>
+        <v>0.9979794107157651</v>
       </c>
       <c r="F38" t="n" s="25">
-        <v>0.9558020926126606</v>
+        <v>0.9301859243140931</v>
       </c>
       <c r="G38" t="n" s="25">
-        <v>0.4344312478908266</v>
+        <v>0.27407358128191595</v>
       </c>
       <c r="H38" t="n" s="25">
-        <v>0.9939765500860147</v>
+        <v>0.9890901395801193</v>
       </c>
       <c r="I38" t="n" s="25">
-        <v>0.9677929217766845</v>
+        <v>0.9220290451882872</v>
       </c>
       <c r="J38" t="n" s="25">
-        <v>0.013990702820318258</v>
+        <v>6.24834807590795E-4</v>
       </c>
       <c r="K38" t="n" s="25">
-        <v>0.9678065295222493</v>
+        <v>0.9452336461111998</v>
       </c>
       <c r="L38" t="n" s="25">
-        <v>0.7673040571204217</v>
+        <v>0.22754225716681878</v>
       </c>
       <c r="M38" t="n" s="25">
-        <v>1.8230656601567658E-16</v>
+        <v>1.996499241299346E-18</v>
       </c>
       <c r="N38" t="n" s="25">
         <v>0.5</v>
@@ -1882,31 +1882,31 @@
         <v>37.0</v>
       </c>
       <c r="E39" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F39" t="n" s="25">
-        <v>0.8850287460780594</v>
+        <v>0.852611324187856</v>
       </c>
       <c r="G39" t="n" s="25">
-        <v>0.01273129857168232</v>
+        <v>0.009413260619676315</v>
       </c>
       <c r="H39" t="n" s="25">
-        <v>0.9664776658482341</v>
+        <v>0.9544030394487568</v>
       </c>
       <c r="I39" t="n" s="25">
-        <v>0.7568414169563584</v>
+        <v>0.5748491391854469</v>
       </c>
       <c r="J39" t="n" s="25">
-        <v>2.0341626319028042E-12</v>
+        <v>4.3884743554632847E-13</v>
       </c>
       <c r="K39" t="n" s="25">
-        <v>0.8321694428393543</v>
+        <v>0.7932885519645734</v>
       </c>
       <c r="L39" t="n" s="25">
-        <v>2.5173698962815766E-7</v>
+        <v>5.970789135602453E-8</v>
       </c>
       <c r="M39" t="n" s="25">
-        <v>1.9165895991345525E-40</v>
+        <v>2.3807958740335745E-41</v>
       </c>
       <c r="N39" t="n" s="25">
         <v>0.5</v>
@@ -1917,31 +1917,31 @@
         <v>38.0</v>
       </c>
       <c r="E40" t="n" s="25">
-        <v>0.9981064170512541</v>
+        <v>0.9977443565714161</v>
       </c>
       <c r="F40" t="n" s="25">
-        <v>0.8567464913401869</v>
+        <v>0.8272182166853016</v>
       </c>
       <c r="G40" t="n" s="25">
-        <v>0.002572460322126458</v>
+        <v>0.0018969372151992324</v>
       </c>
       <c r="H40" t="n" s="25">
-        <v>0.9487667567657981</v>
+        <v>0.9360205129131192</v>
       </c>
       <c r="I40" t="n" s="25">
-        <v>0.24910447149342926</v>
+        <v>0.13524638921938179</v>
       </c>
       <c r="J40" t="n" s="25">
-        <v>1.6720586954982544E-15</v>
+        <v>3.862436188596313E-16</v>
       </c>
       <c r="K40" t="n" s="25">
-        <v>0.8142683105717715</v>
+        <v>0.7745705632994374</v>
       </c>
       <c r="L40" t="n" s="25">
-        <v>5.021874769272729E-9</v>
+        <v>1.277310855508199E-9</v>
       </c>
       <c r="M40" t="n" s="25">
-        <v>2.4240438955700394E-44</v>
+        <v>3.3501818752546937E-45</v>
       </c>
       <c r="N40" t="n" s="25">
         <v>0.5</v>
@@ -1952,31 +1952,31 @@
         <v>39.0</v>
       </c>
       <c r="E41" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F41" t="n" s="25">
-        <v>0.9996233502887084</v>
+        <v>0.9989023129173975</v>
       </c>
       <c r="G41" t="n" s="25">
-        <v>0.9999996278776279</v>
+        <v>0.9999908025120054</v>
       </c>
       <c r="H41" t="n" s="25">
-        <v>0.9994936937616264</v>
+        <v>0.9988198731481429</v>
       </c>
       <c r="I41" t="n" s="25">
-        <v>0.9999999986480983</v>
+        <v>0.9999999202175022</v>
       </c>
       <c r="J41" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999803740295</v>
       </c>
       <c r="K41" t="n" s="25">
-        <v>0.9999951520223155</v>
+        <v>0.9999612970288421</v>
       </c>
       <c r="L41" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999997549430008</v>
       </c>
       <c r="M41" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999846906082335</v>
       </c>
       <c r="N41" t="n" s="25">
         <v>0.5</v>
@@ -1987,31 +1987,31 @@
         <v>40.0</v>
       </c>
       <c r="E42" t="n" s="25">
-        <v>0.7083763562883546</v>
+        <v>0.6958664704710332</v>
       </c>
       <c r="F42" t="n" s="25">
-        <v>0.028569959897200396</v>
+        <v>0.02441614570910831</v>
       </c>
       <c r="G42" t="n" s="25">
-        <v>1.5150435459850828E-5</v>
+        <v>8.328960534764334E-6</v>
       </c>
       <c r="H42" t="n" s="25">
-        <v>0.11291520049304038</v>
+        <v>0.09914256520720674</v>
       </c>
       <c r="I42" t="n" s="25">
-        <v>6.991641802101155E-8</v>
+        <v>3.2521726710531864E-8</v>
       </c>
       <c r="J42" t="n" s="25">
-        <v>6.472270687007939E-25</v>
+        <v>1.2943069952778956E-25</v>
       </c>
       <c r="K42" t="n" s="25">
-        <v>2.383402462042037E-5</v>
+        <v>2.0143340419748695E-5</v>
       </c>
       <c r="L42" t="n" s="25">
-        <v>1.6047486281522743E-25</v>
+        <v>7.189990960023203E-26</v>
       </c>
       <c r="M42" t="n" s="25">
-        <v>8.767006537588682E-63</v>
+        <v>1.7497089908652932E-63</v>
       </c>
       <c r="N42" t="n" s="25">
         <v>0.5</v>
@@ -2022,31 +2022,31 @@
         <v>41.0</v>
       </c>
       <c r="E43" t="n" s="25">
-        <v>0.99821851017748</v>
+        <v>0.9978638604456027</v>
       </c>
       <c r="F43" t="n" s="25">
-        <v>0.9335021118884345</v>
+        <v>0.9041563201924903</v>
       </c>
       <c r="G43" t="n" s="25">
-        <v>0.054066685145579864</v>
+        <v>0.040889786256991134</v>
       </c>
       <c r="H43" t="n" s="25">
-        <v>0.9861346123418073</v>
+        <v>0.9781013416011181</v>
       </c>
       <c r="I43" t="n" s="25">
-        <v>0.9397308973720045</v>
+        <v>0.8713226984403856</v>
       </c>
       <c r="J43" t="n" s="25">
-        <v>8.959064547088745E-10</v>
+        <v>2.0822438661179872E-10</v>
       </c>
       <c r="K43" t="n" s="25">
-        <v>0.8485778652956604</v>
+        <v>0.8107440282768283</v>
       </c>
       <c r="L43" t="n" s="25">
-        <v>1.8897453139783375E-7</v>
+        <v>7.1517611013291E-8</v>
       </c>
       <c r="M43" t="n" s="25">
-        <v>3.403035563355789E-39</v>
+        <v>6.0115207018076175E-40</v>
       </c>
       <c r="N43" t="n" s="25">
         <v>0.5</v>
@@ -2057,31 +2057,31 @@
         <v>42.0</v>
       </c>
       <c r="E44" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F44" t="n" s="25">
-        <v>0.8855670233005039</v>
+        <v>0.8531026301653903</v>
       </c>
       <c r="G44" t="n" s="25">
-        <v>0.02860247693498966</v>
+        <v>0.018608234931286282</v>
       </c>
       <c r="H44" t="n" s="25">
-        <v>0.9664776658482341</v>
+        <v>0.9544030394487568</v>
       </c>
       <c r="I44" t="n" s="25">
-        <v>0.7568415203330348</v>
+        <v>0.5748492217565258</v>
       </c>
       <c r="J44" t="n" s="25">
-        <v>1.388416656931288E-10</v>
+        <v>1.7555567750063687E-11</v>
       </c>
       <c r="K44" t="n" s="25">
-        <v>0.8321695208262272</v>
+        <v>0.7932886070930033</v>
       </c>
       <c r="L44" t="n" s="25">
-        <v>1.2586836807118264E-6</v>
+        <v>2.985393854794936E-7</v>
       </c>
       <c r="M44" t="n" s="25">
-        <v>1.9913911046201028E-36</v>
+        <v>1.5535890479344143E-37</v>
       </c>
       <c r="N44" t="n" s="25">
         <v>0.5</v>
@@ -2092,31 +2092,31 @@
         <v>43.0</v>
       </c>
       <c r="E45" t="n" s="25">
-        <v>0.9983262481363204</v>
+        <v>0.9979794107157651</v>
       </c>
       <c r="F45" t="n" s="25">
-        <v>0.9509466653223423</v>
+        <v>0.9249571419734537</v>
       </c>
       <c r="G45" t="n" s="25">
-        <v>0.06057185956348567</v>
+        <v>0.045358420740493656</v>
       </c>
       <c r="H45" t="n" s="25">
-        <v>0.9883322197136756</v>
+        <v>0.9808338924324379</v>
       </c>
       <c r="I45" t="n" s="25">
-        <v>0.9668688708249649</v>
+        <v>0.9211518594514365</v>
       </c>
       <c r="J45" t="n" s="25">
-        <v>1.8313598403978008E-9</v>
+        <v>3.9768482574186686E-10</v>
       </c>
       <c r="K45" t="n" s="25">
-        <v>0.848577973980164</v>
+        <v>0.8107441031849643</v>
       </c>
       <c r="L45" t="n" s="25">
-        <v>9.417572517207451E-6</v>
+        <v>2.242496617100551E-6</v>
       </c>
       <c r="M45" t="n" s="25">
-        <v>1.5153665990985447E-36</v>
+        <v>1.6919047160164594E-37</v>
       </c>
       <c r="N45" t="n" s="25">
         <v>0.5</v>
@@ -2127,31 +2127,31 @@
         <v>45.0</v>
       </c>
       <c r="E46" t="n" s="25">
-        <v>0.552676860201282</v>
+        <v>0.547461220460845</v>
       </c>
       <c r="F46" t="n" s="25">
-        <v>1.525074399314972E-4</v>
+        <v>1.361176637684465E-4</v>
       </c>
       <c r="G46" t="n" s="25">
-        <v>7.280740290378402E-15</v>
+        <v>5.528679903625104E-15</v>
       </c>
       <c r="H46" t="n" s="25">
-        <v>4.278230002773301E-4</v>
+        <v>4.068862435316134E-4</v>
       </c>
       <c r="I46" t="n" s="25">
-        <v>1.8075505507512027E-21</v>
+        <v>1.3890316786988447E-21</v>
       </c>
       <c r="J46" t="n" s="25">
-        <v>5.515778017175649E-55</v>
+        <v>3.632432225945587E-55</v>
       </c>
       <c r="K46" t="n" s="25">
-        <v>2.473699028693406E-11</v>
+        <v>2.3156210395305017E-11</v>
       </c>
       <c r="L46" t="n" s="25">
-        <v>1.578224889819409E-48</v>
+        <v>1.2195544368303323E-48</v>
       </c>
       <c r="M46" t="n" s="25">
-        <v>8.476476982658534E-104</v>
+        <v>5.607489415804732E-104</v>
       </c>
       <c r="N46" t="n" s="25">
         <v>0.5</v>
@@ -2162,31 +2162,31 @@
         <v>46.0</v>
       </c>
       <c r="E47" t="n" s="25">
-        <v>0.903996626172921</v>
+        <v>0.8946924486553034</v>
       </c>
       <c r="F47" t="n" s="25">
-        <v>0.12820739424239377</v>
+        <v>0.11122356104983065</v>
       </c>
       <c r="G47" t="n" s="25">
-        <v>1.528992175980399E-4</v>
+        <v>7.408266302623998E-5</v>
       </c>
       <c r="H47" t="n" s="25">
-        <v>0.35553107008587576</v>
+        <v>0.32638441217263325</v>
       </c>
       <c r="I47" t="n" s="25">
-        <v>1.887939760472699E-7</v>
+        <v>1.1302576125502083E-7</v>
       </c>
       <c r="J47" t="n" s="25">
-        <v>2.5320343709794795E-25</v>
+        <v>5.588532239454346E-26</v>
       </c>
       <c r="K47" t="n" s="25">
-        <v>7.585916391209948E-4</v>
+        <v>5.809135443566394E-4</v>
       </c>
       <c r="L47" t="n" s="25">
-        <v>1.4698043957784596E-24</v>
+        <v>7.31820532532639E-25</v>
       </c>
       <c r="M47" t="n" s="25">
-        <v>5.7082131504061886E-61</v>
+        <v>1.1984253078512962E-61</v>
       </c>
       <c r="N47" t="n" s="25">
         <v>0.5</v>
@@ -2197,31 +2197,31 @@
         <v>47.0</v>
       </c>
       <c r="E48" t="n" s="25">
-        <v>0.591053953925374</v>
+        <v>0.5834406104236105</v>
       </c>
       <c r="F48" t="n" s="25">
-        <v>0.005064590279143155</v>
+        <v>0.004381917947393503</v>
       </c>
       <c r="G48" t="n" s="25">
-        <v>5.227139548796827E-7</v>
+        <v>2.9216403833808105E-7</v>
       </c>
       <c r="H48" t="n" s="25">
-        <v>0.024819632452751136</v>
+        <v>0.02153185227847688</v>
       </c>
       <c r="I48" t="n" s="25">
-        <v>1.0836207170125504E-10</v>
+        <v>5.08736276265928E-11</v>
       </c>
       <c r="J48" t="n" s="25">
-        <v>1.6640375473154903E-28</v>
+        <v>3.4051030197035615E-29</v>
       </c>
       <c r="K48" t="n" s="25">
-        <v>2.1414261911126692E-7</v>
+        <v>1.7966223198955098E-7</v>
       </c>
       <c r="L48" t="n" s="25">
-        <v>8.808544843504856E-30</v>
+        <v>4.010995341587052E-30</v>
       </c>
       <c r="M48" t="n" s="25">
-        <v>2.2808606248236641E-66</v>
+        <v>4.651882814291105E-67</v>
       </c>
       <c r="N48" t="n" s="25">
         <v>0.5</v>
@@ -2232,31 +2232,31 @@
         <v>49.0</v>
       </c>
       <c r="E49" t="n" s="25">
-        <v>0.9979865926771708</v>
+        <v>0.9976174652962008</v>
       </c>
       <c r="F49" t="n" s="25">
-        <v>0.8511293294861769</v>
+        <v>0.8223742324052433</v>
       </c>
       <c r="G49" t="n" s="25">
-        <v>5.155530562467031E-4</v>
+        <v>3.799640574069905E-4</v>
       </c>
       <c r="H49" t="n" s="25">
-        <v>0.9150286220565971</v>
+        <v>0.9017429619063677</v>
       </c>
       <c r="I49" t="n" s="25">
-        <v>0.034127117981746675</v>
+        <v>0.017758930402075518</v>
       </c>
       <c r="J49" t="n" s="25">
-        <v>2.5891056367169868E-19</v>
+        <v>6.510710504036284E-20</v>
       </c>
       <c r="K49" t="n" s="25">
-        <v>0.6291435545653649</v>
+        <v>0.6064317186050644</v>
       </c>
       <c r="L49" t="n" s="25">
-        <v>1.6712011294696725E-12</v>
+        <v>7.671226339505567E-13</v>
       </c>
       <c r="M49" t="n" s="25">
-        <v>2.9506950862975866E-52</v>
+        <v>7.224379977126422E-53</v>
       </c>
       <c r="N49" t="n" s="25">
         <v>0.5</v>
@@ -2267,31 +2267,31 @@
         <v>50.0</v>
       </c>
       <c r="E50" t="n" s="25">
-        <v>0.6922211701756689</v>
+        <v>0.6816295473346061</v>
       </c>
       <c r="F50" t="n" s="25">
-        <v>0.028565332906702517</v>
+        <v>0.024412958180760405</v>
       </c>
       <c r="G50" t="n" s="25">
-        <v>2.3247863062918177E-8</v>
+        <v>1.6736090154885173E-8</v>
       </c>
       <c r="H50" t="n" s="25">
-        <v>0.07659025025081738</v>
+        <v>0.06993482017045134</v>
       </c>
       <c r="I50" t="n" s="25">
-        <v>5.111908500314535E-9</v>
+        <v>2.6846533463851046E-9</v>
       </c>
       <c r="J50" t="n" s="25">
-        <v>8.436522607183717E-32</v>
+        <v>2.480618560869097E-32</v>
       </c>
       <c r="K50" t="n" s="25">
-        <v>3.6128402746938096E-4</v>
+        <v>3.2167429968023927E-4</v>
       </c>
       <c r="L50" t="n" s="25">
-        <v>2.3180669739248087E-25</v>
+        <v>1.195583007558356E-25</v>
       </c>
       <c r="M50" t="n" s="25">
-        <v>1.0514724793067157E-69</v>
+        <v>3.056719636420922E-70</v>
       </c>
       <c r="N50" t="n" s="25">
         <v>0.5</v>
@@ -2302,31 +2302,31 @@
         <v>51.0</v>
       </c>
       <c r="E51" t="n" s="25">
-        <v>0.19484418382330773</v>
+        <v>0.19184556890566629</v>
       </c>
       <c r="F51" t="n" s="25">
-        <v>1.8922280623422567E-5</v>
+        <v>1.68335169766875E-5</v>
       </c>
       <c r="G51" t="n" s="25">
-        <v>1.1032675339265433E-11</v>
+        <v>4.2795312698233975E-12</v>
       </c>
       <c r="H51" t="n" s="25">
-        <v>9.460424013122314E-5</v>
+        <v>8.41619163495885E-5</v>
       </c>
       <c r="I51" t="n" s="25">
-        <v>3.382444511185907E-24</v>
+        <v>2.5957293168931696E-24</v>
       </c>
       <c r="J51" t="n" s="25">
-        <v>8.61178816491738E-51</v>
+        <v>2.953080873548566E-51</v>
       </c>
       <c r="K51" t="n" s="25">
-        <v>6.226995431338513E-16</v>
+        <v>5.424038794391406E-16</v>
       </c>
       <c r="L51" t="n" s="25">
-        <v>2.08798600970555E-55</v>
+        <v>1.5867073312592786E-55</v>
       </c>
       <c r="M51" t="n" s="25">
-        <v>5.227355224098339E-97</v>
+        <v>1.9686055453038388E-97</v>
       </c>
       <c r="N51" t="n" s="25">
         <v>0.5</v>
@@ -2337,31 +2337,31 @@
         <v>52.0</v>
       </c>
       <c r="E52" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F52" t="n" s="25">
-        <v>0.8850287460780594</v>
+        <v>0.852611324187856</v>
       </c>
       <c r="G52" t="n" s="25">
-        <v>0.012731298569436385</v>
+        <v>0.009413260618673171</v>
       </c>
       <c r="H52" t="n" s="25">
-        <v>0.954971641505077</v>
+        <v>0.9414484015845368</v>
       </c>
       <c r="I52" t="n" s="25">
-        <v>0.7568413928436144</v>
+        <v>0.5748491201497488</v>
       </c>
       <c r="J52" t="n" s="25">
-        <v>4.068325263812228E-13</v>
+        <v>8.776948710929646E-14</v>
       </c>
       <c r="K52" t="n" s="25">
-        <v>0.6846975132503978</v>
+        <v>0.657923120492643</v>
       </c>
       <c r="L52" t="n" s="25">
-        <v>4.508643114552591E-9</v>
+        <v>1.7656550892484964E-9</v>
       </c>
       <c r="M52" t="n" s="25">
-        <v>1.8445976440319179E-44</v>
+        <v>3.648447878734241E-45</v>
       </c>
       <c r="N52" t="n" s="25">
         <v>0.5</v>
@@ -2372,31 +2372,31 @@
         <v>53.0</v>
       </c>
       <c r="E53" t="n" s="25">
-        <v>0.9985217895258434</v>
+        <v>0.998191269788162</v>
       </c>
       <c r="F53" t="n" s="25">
-        <v>0.9997811155333013</v>
+        <v>0.9994340145214876</v>
       </c>
       <c r="G53" t="n" s="25">
-        <v>0.9987468892613192</v>
+        <v>0.9954301870216646</v>
       </c>
       <c r="H53" t="n" s="25">
-        <v>0.9968737734232905</v>
+        <v>0.9935226532509084</v>
       </c>
       <c r="I53" t="n" s="25">
-        <v>0.998048957598436</v>
+        <v>0.9925114630793259</v>
       </c>
       <c r="J53" t="n" s="25">
-        <v>1.0</v>
+        <v>0.988499523009808</v>
       </c>
       <c r="K53" t="n" s="25">
-        <v>0.8857066637289167</v>
+        <v>0.8117275507046874</v>
       </c>
       <c r="L53" t="n" s="25">
-        <v>1.0</v>
+        <v>0.38914224457411967</v>
       </c>
       <c r="M53" t="n" s="25">
-        <v>1.0</v>
+        <v>7.438413047147125E-11</v>
       </c>
       <c r="N53" t="n" s="25">
         <v>0.5</v>
@@ -2407,31 +2407,31 @@
         <v>54.0</v>
       </c>
       <c r="E54" t="n" s="25">
-        <v>0.9985217895258434</v>
+        <v>0.998191269788162</v>
       </c>
       <c r="F54" t="n" s="25">
-        <v>0.9999622057257918</v>
+        <v>0.9998975839828073</v>
       </c>
       <c r="G54" t="n" s="25">
-        <v>0.9999510345066784</v>
+        <v>0.9994799343879697</v>
       </c>
       <c r="H54" t="n" s="25">
-        <v>0.9999044373807121</v>
+        <v>0.9997707073770833</v>
       </c>
       <c r="I54" t="n" s="25">
-        <v>0.99999953487417</v>
+        <v>0.9999848579652059</v>
       </c>
       <c r="J54" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999265137638937</v>
       </c>
       <c r="K54" t="n" s="25">
-        <v>0.9994286845444289</v>
+        <v>0.9968238291108216</v>
       </c>
       <c r="L54" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9994525303165234</v>
       </c>
       <c r="M54" t="n" s="25">
-        <v>1.0</v>
+        <v>0.01607444309687811</v>
       </c>
       <c r="N54" t="n" s="25">
         <v>0.5</v>
@@ -2442,31 +2442,31 @@
         <v>55.0</v>
       </c>
       <c r="E55" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F55" t="n" s="25">
-        <v>0.9964197417631617</v>
+        <v>0.9928234649584373</v>
       </c>
       <c r="G55" t="n" s="25">
-        <v>0.7863672894528181</v>
+        <v>0.703285246367329</v>
       </c>
       <c r="H55" t="n" s="25">
-        <v>0.9989737834088048</v>
+        <v>0.9978333925853986</v>
       </c>
       <c r="I55" t="n" s="25">
-        <v>0.9963836936287013</v>
+        <v>0.9902147807851605</v>
       </c>
       <c r="J55" t="n" s="25">
-        <v>0.004508325361501521</v>
+        <v>6.704557597666172E-4</v>
       </c>
       <c r="K55" t="n" s="25">
-        <v>0.970801917313484</v>
+        <v>0.9502127842024546</v>
       </c>
       <c r="L55" t="n" s="25">
-        <v>0.7019138281453747</v>
+        <v>0.18735257598962796</v>
       </c>
       <c r="M55" t="n" s="25">
-        <v>1.3416935297536503E-20</v>
+        <v>3.3386869289384774E-22</v>
       </c>
       <c r="N55" t="n" s="25">
         <v>0.5</v>
@@ -2477,31 +2477,31 @@
         <v>56.0</v>
       </c>
       <c r="E56" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F56" t="n" s="25">
-        <v>0.9999946208549079</v>
+        <v>0.9999811175492781</v>
       </c>
       <c r="G56" t="n" s="25">
-        <v>0.9999999999830446</v>
+        <v>0.9999999990671342</v>
       </c>
       <c r="H56" t="n" s="25">
-        <v>0.9998474188275651</v>
+        <v>0.9996530646013675</v>
       </c>
       <c r="I56" t="n" s="25">
-        <v>0.999999999999532</v>
+        <v>0.9999999999654631</v>
       </c>
       <c r="J56" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999977</v>
       </c>
       <c r="K56" t="n" s="25">
-        <v>0.9999929355102812</v>
+        <v>0.9999585099746565</v>
       </c>
       <c r="L56" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999370837</v>
       </c>
       <c r="M56" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999975283814</v>
       </c>
       <c r="N56" t="n" s="25">
         <v>0.5</v>
@@ -2512,31 +2512,31 @@
         <v>57.0</v>
       </c>
       <c r="E57" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F57" t="n" s="25">
-        <v>0.9979560110755775</v>
+        <v>0.9954631180194575</v>
       </c>
       <c r="G57" t="n" s="25">
-        <v>0.9505136129649026</v>
+        <v>0.9042089931591798</v>
       </c>
       <c r="H57" t="n" s="25">
-        <v>0.9979940880609259</v>
+        <v>0.996153304545462</v>
       </c>
       <c r="I57" t="n" s="25">
-        <v>0.9963623752348141</v>
+        <v>0.9901922753414255</v>
       </c>
       <c r="J57" t="n" s="25">
-        <v>0.37886115887946054</v>
+        <v>0.032469336956048936</v>
       </c>
       <c r="K57" t="n" s="25">
-        <v>0.8636545492910408</v>
+        <v>0.8270277785021006</v>
       </c>
       <c r="L57" t="n" s="25">
-        <v>0.020789972166712623</v>
+        <v>0.005500969336443341</v>
       </c>
       <c r="M57" t="n" s="25">
-        <v>1.3434599224190229E-20</v>
+        <v>3.340411226295076E-22</v>
       </c>
       <c r="N57" t="n" s="25">
         <v>0.5</v>
@@ -2547,31 +2547,31 @@
         <v>58.0</v>
       </c>
       <c r="E58" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F58" t="n" s="25">
-        <v>0.9999909568154958</v>
+        <v>0.9999701488634093</v>
       </c>
       <c r="G58" t="n" s="25">
-        <v>0.9999999965190549</v>
+        <v>0.9999998599289657</v>
       </c>
       <c r="H58" t="n" s="25">
-        <v>0.9985553953512112</v>
+        <v>0.997555765030834</v>
       </c>
       <c r="I58" t="n" s="25">
-        <v>0.9999999457168222</v>
+        <v>0.9999988640368334</v>
       </c>
       <c r="J58" t="n" s="25">
-        <v>0.9999999985415914</v>
+        <v>0.9999998089921946</v>
       </c>
       <c r="K58" t="n" s="25">
-        <v>0.9620812584456175</v>
+        <v>0.9432928890444416</v>
       </c>
       <c r="L58" t="n" s="25">
-        <v>0.984595563079996</v>
+        <v>0.9706374905547317</v>
       </c>
       <c r="M58" t="n" s="25">
-        <v>0.028553997500158832</v>
+        <v>0.001191681151162678</v>
       </c>
       <c r="N58" t="n" s="25">
         <v>0.5</v>
@@ -2582,31 +2582,31 @@
         <v>59.0</v>
       </c>
       <c r="E59" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F59" t="n" s="25">
-        <v>0.9872135643303952</v>
+        <v>0.9728736368429631</v>
       </c>
       <c r="G59" t="n" s="25">
-        <v>0.9916125537280615</v>
+        <v>0.9684797452705963</v>
       </c>
       <c r="H59" t="n" s="25">
-        <v>0.9831117699426373</v>
+        <v>0.9739546028237751</v>
       </c>
       <c r="I59" t="n" s="25">
-        <v>0.9468926074521338</v>
+        <v>0.8748316522654216</v>
       </c>
       <c r="J59" t="n" s="25">
-        <v>0.9984577444523991</v>
+        <v>0.8670117658418242</v>
       </c>
       <c r="K59" t="n" s="25">
-        <v>0.8336789058850667</v>
+        <v>0.7943596863174931</v>
       </c>
       <c r="L59" t="n" s="25">
-        <v>0.06957822845451629</v>
+        <v>0.01859960701360726</v>
       </c>
       <c r="M59" t="n" s="25">
-        <v>1.7242036443798887E-12</v>
+        <v>1.2025496640863014E-14</v>
       </c>
       <c r="N59" t="n" s="25">
         <v>0.5</v>
@@ -2617,31 +2617,31 @@
         <v>60.0</v>
       </c>
       <c r="E60" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F60" t="n" s="25">
-        <v>0.9999946208549079</v>
+        <v>0.9999811175492781</v>
       </c>
       <c r="G60" t="n" s="25">
-        <v>0.9999999999830446</v>
+        <v>0.9999999990671342</v>
       </c>
       <c r="H60" t="n" s="25">
-        <v>0.9995763217579898</v>
+        <v>0.9991665379274768</v>
       </c>
       <c r="I60" t="n" s="25">
-        <v>0.9999999999850587</v>
+        <v>0.9999999993519149</v>
       </c>
       <c r="J60" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999997562475</v>
       </c>
       <c r="K60" t="n" s="25">
-        <v>0.9973221504710132</v>
+        <v>0.9938528065524759</v>
       </c>
       <c r="L60" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9983594990857826</v>
       </c>
       <c r="M60" t="n" s="25">
-        <v>1.0</v>
+        <v>0.988788577326286</v>
       </c>
       <c r="N60" t="n" s="25">
         <v>0.5</v>
@@ -2652,31 +2652,31 @@
         <v>61.0</v>
       </c>
       <c r="E61" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F61" t="n" s="25">
-        <v>0.998925444346692</v>
+        <v>0.9973374472169715</v>
       </c>
       <c r="G61" t="n" s="25">
-        <v>0.998596933454267</v>
+        <v>0.9892938893942904</v>
       </c>
       <c r="H61" t="n" s="25">
-        <v>0.9989737834088048</v>
+        <v>0.9978333925853986</v>
       </c>
       <c r="I61" t="n" s="25">
-        <v>0.9999099575666369</v>
+        <v>0.9986074767822047</v>
       </c>
       <c r="J61" t="n" s="25">
-        <v>0.9999777206736942</v>
+        <v>0.9989446071046413</v>
       </c>
       <c r="K61" t="n" s="25">
-        <v>0.9947198142008316</v>
+        <v>0.98214016806867</v>
       </c>
       <c r="L61" t="n" s="25">
-        <v>0.9993209793365128</v>
+        <v>0.9931077843281607</v>
       </c>
       <c r="M61" t="n" s="25">
-        <v>3.245122099866355E-5</v>
+        <v>3.2213185209847217E-7</v>
       </c>
       <c r="N61" t="n" s="25">
         <v>0.5</v>
@@ -2687,31 +2687,31 @@
         <v>62.0</v>
       </c>
       <c r="E62" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F62" t="n" s="25">
-        <v>0.9999659352736193</v>
+        <v>0.9999059805099008</v>
       </c>
       <c r="G62" t="n" s="25">
-        <v>0.9999586032308518</v>
+        <v>0.9995703183932225</v>
       </c>
       <c r="H62" t="n" s="25">
-        <v>0.9997834155981505</v>
+        <v>0.9995311813557107</v>
       </c>
       <c r="I62" t="n" s="25">
-        <v>0.9999939417191812</v>
+        <v>0.9998894899323125</v>
       </c>
       <c r="J62" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9997708915386035</v>
       </c>
       <c r="K62" t="n" s="25">
-        <v>0.9947198142008316</v>
+        <v>0.98214016806867</v>
       </c>
       <c r="L62" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9946986746450712</v>
       </c>
       <c r="M62" t="n" s="25">
-        <v>1.0</v>
+        <v>1.727310653289726E-5</v>
       </c>
       <c r="N62" t="n" s="25">
         <v>0.5</v>
@@ -2722,31 +2722,31 @@
         <v>63.0</v>
       </c>
       <c r="E63" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F63" t="n" s="25">
-        <v>0.9994619646723697</v>
+        <v>0.998513110095659</v>
       </c>
       <c r="G63" t="n" s="25">
-        <v>0.9999696738107409</v>
+        <v>0.9994191905507488</v>
       </c>
       <c r="H63" t="n" s="25">
-        <v>0.9985565449066184</v>
+        <v>0.9970975974146227</v>
       </c>
       <c r="I63" t="n" s="25">
-        <v>0.9999766369555098</v>
+        <v>0.9994947634100569</v>
       </c>
       <c r="J63" t="n" s="25">
-        <v>1.0</v>
+        <v>0.999974183785637</v>
       </c>
       <c r="K63" t="n" s="25">
-        <v>0.9728155892810841</v>
+        <v>0.9420454416862651</v>
       </c>
       <c r="L63" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9575941192851296</v>
       </c>
       <c r="M63" t="n" s="25">
-        <v>1.0</v>
+        <v>6.724361978762471E-5</v>
       </c>
       <c r="N63" t="n" s="25">
         <v>0.5</v>
@@ -2757,31 +2757,31 @@
         <v>64.0</v>
       </c>
       <c r="E64" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F64" t="n" s="25">
-        <v>0.9999909568154958</v>
+        <v>0.9999701488634093</v>
       </c>
       <c r="G64" t="n" s="25">
-        <v>0.9999999965190549</v>
+        <v>0.9999998599289657</v>
       </c>
       <c r="H64" t="n" s="25">
-        <v>0.9992313084944262</v>
+        <v>0.9985768795621054</v>
       </c>
       <c r="I64" t="n" s="25">
-        <v>0.9999999942194959</v>
+        <v>0.9999998247013931</v>
       </c>
       <c r="J64" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999998197321517</v>
       </c>
       <c r="K64" t="n" s="25">
-        <v>0.9991956325678838</v>
+        <v>0.9976753177865405</v>
       </c>
       <c r="L64" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9993599212627551</v>
       </c>
       <c r="M64" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9780732167933316</v>
       </c>
       <c r="N64" t="n" s="25">
         <v>0.5</v>
@@ -2792,31 +2792,31 @@
         <v>65.0</v>
       </c>
       <c r="E65" t="n" s="25">
-        <v>0.9983256303388971</v>
+        <v>0.9979787632768359</v>
       </c>
       <c r="F65" t="n" s="25">
-        <v>0.9988024245079742</v>
+        <v>0.9970447437326225</v>
       </c>
       <c r="G65" t="n" s="25">
-        <v>0.999367714631625</v>
+        <v>0.9943065772848089</v>
       </c>
       <c r="H65" t="n" s="25">
-        <v>0.9990761831063862</v>
+        <v>0.9980204514894044</v>
       </c>
       <c r="I65" t="n" s="25">
-        <v>0.9995720262825042</v>
+        <v>0.9953615980396273</v>
       </c>
       <c r="J65" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9990577611312447</v>
       </c>
       <c r="K65" t="n" s="25">
-        <v>0.9935621969086573</v>
+        <v>0.981706488241055</v>
       </c>
       <c r="L65" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9694846068430623</v>
       </c>
       <c r="M65" t="n" s="25">
-        <v>1.0</v>
+        <v>5.386015080037836E-5</v>
       </c>
       <c r="N65" t="n" s="25">
         <v>0.5</v>
@@ -2827,31 +2827,31 @@
         <v>66.0</v>
       </c>
       <c r="E66" t="n" s="25">
-        <v>0.9909523639985501</v>
+        <v>0.9895202270451764</v>
       </c>
       <c r="F66" t="n" s="25">
-        <v>0.49569170819824615</v>
+        <v>0.4475160199597763</v>
       </c>
       <c r="G66" t="n" s="25">
-        <v>1.2379567452348896E-4</v>
+        <v>7.82110533765805E-5</v>
       </c>
       <c r="H66" t="n" s="25">
-        <v>0.8019510036201395</v>
+        <v>0.7792536698179426</v>
       </c>
       <c r="I66" t="n" s="25">
-        <v>0.0037005147729812474</v>
+        <v>0.0018610971348949552</v>
       </c>
       <c r="J66" t="n" s="25">
-        <v>1.139318867675764E-19</v>
+        <v>1.7169257597829463E-20</v>
       </c>
       <c r="K66" t="n" s="25">
-        <v>0.2533369666663361</v>
+        <v>0.23557396164385994</v>
       </c>
       <c r="L66" t="n" s="25">
-        <v>1.8297134018355635E-14</v>
+        <v>8.380445002102927E-15</v>
       </c>
       <c r="M66" t="n" s="25">
-        <v>7.976258878134865E-52</v>
+        <v>1.2533649485257516E-52</v>
       </c>
       <c r="N66" t="n" s="25">
         <v>0.5</v>
@@ -2862,31 +2862,31 @@
         <v>67.0</v>
       </c>
       <c r="E67" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F67" t="n" s="25">
-        <v>0.9944277795013629</v>
+        <v>0.9896888845704119</v>
       </c>
       <c r="G67" t="n" s="25">
-        <v>0.41382088369068015</v>
+        <v>0.3731636233195222</v>
       </c>
       <c r="H67" t="n" s="25">
-        <v>0.9994936937616264</v>
+        <v>0.9988198731481429</v>
       </c>
       <c r="I67" t="n" s="25">
-        <v>0.9966148195431541</v>
+        <v>0.9903921474640099</v>
       </c>
       <c r="J67" t="n" s="25">
-        <v>2.9709839328625837E-5</v>
+        <v>1.2269555158750461E-5</v>
       </c>
       <c r="K67" t="n" s="25">
-        <v>0.9946305997722609</v>
+        <v>0.987245806578171</v>
       </c>
       <c r="L67" t="n" s="25">
-        <v>0.9958026935960641</v>
+        <v>0.8985132820765056</v>
       </c>
       <c r="M67" t="n" s="25">
-        <v>1.3214519618027548E-20</v>
+        <v>3.3248794458162866E-22</v>
       </c>
       <c r="N67" t="n" s="25">
         <v>0.5</v>
@@ -2897,31 +2897,31 @@
         <v>68.0</v>
       </c>
       <c r="E68" t="n" s="25">
-        <v>0.99821851017748</v>
+        <v>0.9978638604456027</v>
       </c>
       <c r="F68" t="n" s="25">
-        <v>0.9737848603290674</v>
+        <v>0.9526183021386465</v>
       </c>
       <c r="G68" t="n" s="25">
-        <v>0.948047735495494</v>
+        <v>0.8716510745554541</v>
       </c>
       <c r="H68" t="n" s="25">
-        <v>0.9928343353732667</v>
+        <v>0.9875197209263681</v>
       </c>
       <c r="I68" t="n" s="25">
-        <v>0.9418722391494257</v>
+        <v>0.8726770034720097</v>
       </c>
       <c r="J68" t="n" s="25">
-        <v>1.0</v>
+        <v>0.29303324127311636</v>
       </c>
       <c r="K68" t="n" s="25">
-        <v>0.96722615802896</v>
+        <v>0.9448690372539239</v>
       </c>
       <c r="L68" t="n" s="25">
-        <v>1.0</v>
+        <v>0.04486447531431349</v>
       </c>
       <c r="M68" t="n" s="25">
-        <v>1.0</v>
+        <v>1.981583813523308E-14</v>
       </c>
       <c r="N68" t="n" s="25">
         <v>0.5</v>
@@ -2932,31 +2932,31 @@
         <v>69.0</v>
       </c>
       <c r="E69" t="n" s="25">
-        <v>0.7926599173741126</v>
+        <v>0.778005852028893</v>
       </c>
       <c r="F69" t="n" s="25">
-        <v>0.1453625721894317</v>
+        <v>0.12466518378544215</v>
       </c>
       <c r="G69" t="n" s="25">
-        <v>9.011094689555322E-4</v>
+        <v>4.2941390225696474E-4</v>
       </c>
       <c r="H69" t="n" s="25">
-        <v>0.11291517016762834</v>
+        <v>0.09914254683806657</v>
       </c>
       <c r="I69" t="n" s="25">
-        <v>2.1973189066095405E-7</v>
+        <v>1.0860888244262572E-7</v>
       </c>
       <c r="J69" t="n" s="25">
-        <v>5.9043131247775485E-24</v>
+        <v>1.0857513983490918E-24</v>
       </c>
       <c r="K69" t="n" s="25">
-        <v>2.3834024620420603E-5</v>
+        <v>2.0143340419748854E-5</v>
       </c>
       <c r="L69" t="n" s="25">
-        <v>2.609271003544552E-24</v>
+        <v>1.2358054424123029E-24</v>
       </c>
       <c r="M69" t="n" s="25">
-        <v>1.9342502194484254E-58</v>
+        <v>3.673181038938814E-59</v>
       </c>
       <c r="N69" t="n" s="25">
         <v>0.5</v>
@@ -2967,31 +2967,31 @@
         <v>70.0</v>
       </c>
       <c r="E70" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F70" t="n" s="25">
-        <v>0.8863386328829925</v>
+        <v>0.8537769432573361</v>
       </c>
       <c r="G70" t="n" s="25">
-        <v>0.06299661997835386</v>
+        <v>0.036454427333272615</v>
       </c>
       <c r="H70" t="n" s="25">
-        <v>0.9755403586718728</v>
+        <v>0.965088869001122</v>
       </c>
       <c r="I70" t="n" s="25">
-        <v>0.7568516871867383</v>
+        <v>0.5748560360447206</v>
       </c>
       <c r="J70" t="n" s="25">
-        <v>4.735474494604361E-8</v>
+        <v>3.51012358632379E-9</v>
       </c>
       <c r="K70" t="n" s="25">
-        <v>0.9188462335235532</v>
+        <v>0.884494873085071</v>
       </c>
       <c r="L70" t="n" s="25">
-        <v>3.397898963463875E-4</v>
+        <v>4.9187677508974285E-5</v>
       </c>
       <c r="M70" t="n" s="25">
-        <v>2.1498403560723543E-28</v>
+        <v>6.615482194150571E-30</v>
       </c>
       <c r="N70" t="n" s="25">
         <v>0.5</v>
@@ -3002,31 +3002,31 @@
         <v>71.0</v>
       </c>
       <c r="E71" t="n" s="25">
-        <v>0.009275404615165659</v>
+        <v>0.009131041355646243</v>
       </c>
       <c r="F71" t="n" s="25">
-        <v>1.1437633235617631E-5</v>
+        <v>9.681142680343307E-6</v>
       </c>
       <c r="G71" t="n" s="25">
-        <v>2.0431225432068825E-9</v>
+        <v>1.2914745335732695E-9</v>
       </c>
       <c r="H71" t="n" s="25">
-        <v>9.899612232230265E-6</v>
+        <v>8.513421730189771E-6</v>
       </c>
       <c r="I71" t="n" s="25">
-        <v>1.2712509572683381E-14</v>
+        <v>5.5144689385992016E-15</v>
       </c>
       <c r="J71" t="n" s="25">
-        <v>1.2697177903484198E-28</v>
+        <v>2.7278088809534655E-29</v>
       </c>
       <c r="K71" t="n" s="25">
-        <v>3.916696990858901E-9</v>
+        <v>2.204118028942167E-9</v>
       </c>
       <c r="L71" t="n" s="25">
-        <v>2.113720347061176E-25</v>
+        <v>1.7920154938783772E-26</v>
       </c>
       <c r="M71" t="n" s="25">
-        <v>9.88758240026481E-56</v>
+        <v>5.0799820636512944E-57</v>
       </c>
       <c r="N71" t="n" s="25">
         <v>0.5</v>
@@ -3037,31 +3037,31 @@
         <v>72.0</v>
       </c>
       <c r="E72" t="n" s="25">
-        <v>0.9914872471647664</v>
+        <v>0.9900740778744833</v>
       </c>
       <c r="F72" t="n" s="25">
-        <v>0.49844515991616634</v>
+        <v>0.4494915602049419</v>
       </c>
       <c r="G72" t="n" s="25">
-        <v>0.016548552384124997</v>
+        <v>0.006160970029819499</v>
       </c>
       <c r="H72" t="n" s="25">
-        <v>0.8524669013947486</v>
+        <v>0.8271926461731245</v>
       </c>
       <c r="I72" t="n" s="25">
-        <v>0.03369837562733563</v>
+        <v>0.015873201193184052</v>
       </c>
       <c r="J72" t="n" s="25">
-        <v>1.6195939083710845E-8</v>
+        <v>2.6359283202130574E-10</v>
       </c>
       <c r="K72" t="n" s="25">
-        <v>0.4671850876695347</v>
+        <v>0.40730086145521494</v>
       </c>
       <c r="L72" t="n" s="25">
-        <v>4.024311498031096E-8</v>
+        <v>9.970183314559548E-9</v>
       </c>
       <c r="M72" t="n" s="25">
-        <v>7.637038491791805E-28</v>
+        <v>1.0539044918759394E-29</v>
       </c>
       <c r="N72" t="n" s="25">
         <v>0.5</v>
@@ -3072,31 +3072,31 @@
         <v>73.0</v>
       </c>
       <c r="E73" t="n" s="25">
-        <v>0.9924697177756184</v>
+        <v>0.9911013010133493</v>
       </c>
       <c r="F73" t="n" s="25">
-        <v>0.5145965892029231</v>
+        <v>0.4614567478849588</v>
       </c>
       <c r="G73" t="n" s="25">
-        <v>0.006732342901718844</v>
+        <v>0.00487611644756324</v>
       </c>
       <c r="H73" t="n" s="25">
-        <v>0.8211829702189183</v>
+        <v>0.7914662608276162</v>
       </c>
       <c r="I73" t="n" s="25">
-        <v>0.2699675774075353</v>
+        <v>0.1346883962459756</v>
       </c>
       <c r="J73" t="n" s="25">
-        <v>3.1294086128344573E-15</v>
+        <v>9.981007890333453E-16</v>
       </c>
       <c r="K73" t="n" s="25">
-        <v>0.08939683386512086</v>
+        <v>0.07908573278757121</v>
       </c>
       <c r="L73" t="n" s="25">
-        <v>6.282031538221657E-13</v>
+        <v>2.3254023294560643E-13</v>
       </c>
       <c r="M73" t="n" s="25">
-        <v>1.6769069523704414E-49</v>
+        <v>4.716722109692138E-50</v>
       </c>
       <c r="N73" t="n" s="25">
         <v>0.5</v>
@@ -3107,31 +3107,31 @@
         <v>74.0</v>
       </c>
       <c r="E74" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F74" t="n" s="25">
-        <v>0.9999909568154958</v>
+        <v>0.9999701488634093</v>
       </c>
       <c r="G74" t="n" s="25">
-        <v>0.9999999965190549</v>
+        <v>0.9999998599289657</v>
       </c>
       <c r="H74" t="n" s="25">
-        <v>0.9989369303900907</v>
+        <v>0.998121328040423</v>
       </c>
       <c r="I74" t="n" s="25">
-        <v>0.9999999819210462</v>
+        <v>0.9999995434416108</v>
       </c>
       <c r="J74" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999998090946709</v>
       </c>
       <c r="K74" t="n" s="25">
-        <v>0.994284011908115</v>
+        <v>0.9880358935432463</v>
       </c>
       <c r="L74" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9955494876143561</v>
       </c>
       <c r="M74" t="n" s="25">
-        <v>1.0</v>
+        <v>0.19871998960861423</v>
       </c>
       <c r="N74" t="n" s="25">
         <v>0.5</v>
@@ -3142,31 +3142,31 @@
         <v>75.0</v>
       </c>
       <c r="E75" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F75" t="n" s="25">
-        <v>0.9985061106918331</v>
+        <v>0.9964975773844953</v>
       </c>
       <c r="G75" t="n" s="25">
-        <v>0.9837690611640719</v>
+        <v>0.954290862347611</v>
       </c>
       <c r="H75" t="n" s="25">
-        <v>0.9992768693895039</v>
+        <v>0.9983959577982182</v>
       </c>
       <c r="I75" t="n" s="25">
-        <v>0.9993401892060033</v>
+        <v>0.9955810872304819</v>
       </c>
       <c r="J75" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9661580101867886</v>
       </c>
       <c r="K75" t="n" s="25">
-        <v>0.9966965428247329</v>
+        <v>0.9870914758525534</v>
       </c>
       <c r="L75" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9944794945718824</v>
       </c>
       <c r="M75" t="n" s="25">
-        <v>1.0</v>
+        <v>3.1666156747836724E-8</v>
       </c>
       <c r="N75" t="n" s="25">
         <v>0.5</v>
@@ -3177,31 +3177,31 @@
         <v>76.0</v>
       </c>
       <c r="E76" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F76" t="n" s="25">
-        <v>0.8920793583094263</v>
+        <v>0.8598451992011008</v>
       </c>
       <c r="G76" t="n" s="25">
-        <v>0.128330144663717</v>
+        <v>0.08659560891741894</v>
       </c>
       <c r="H76" t="n" s="25">
-        <v>0.9755403586718728</v>
+        <v>0.965088869001122</v>
       </c>
       <c r="I76" t="n" s="25">
-        <v>0.756841801643999</v>
+        <v>0.5748493945716393</v>
       </c>
       <c r="J76" t="n" s="25">
-        <v>1.0</v>
+        <v>8.654469683017509E-11</v>
       </c>
       <c r="K76" t="n" s="25">
-        <v>0.9188422487873482</v>
+        <v>0.8844921089397342</v>
       </c>
       <c r="L76" t="n" s="25">
-        <v>1.0</v>
+        <v>1.9676000107667747E-6</v>
       </c>
       <c r="M76" t="n" s="25">
-        <v>1.0</v>
+        <v>6.650494590214074E-35</v>
       </c>
       <c r="N76" t="n" s="25">
         <v>0.5</v>
@@ -3212,31 +3212,31 @@
         <v>77.0</v>
       </c>
       <c r="E77" t="n" s="25">
-        <v>0.9914872471647664</v>
+        <v>0.9900740778744833</v>
       </c>
       <c r="F77" t="n" s="25">
-        <v>0.4957965953753643</v>
+        <v>0.4476029076661467</v>
       </c>
       <c r="G77" t="n" s="25">
-        <v>2.7104549644271965E-4</v>
+        <v>1.9596196995137476E-4</v>
       </c>
       <c r="H77" t="n" s="25">
-        <v>0.7600820154413114</v>
+        <v>0.7340124884264932</v>
       </c>
       <c r="I77" t="n" s="25">
-        <v>0.004186187343198439</v>
+        <v>0.002079444661775603</v>
       </c>
       <c r="J77" t="n" s="25">
-        <v>1.8687875868324752E-21</v>
+        <v>7.069985425690892E-22</v>
       </c>
       <c r="K77" t="n" s="25">
-        <v>0.07132410985685955</v>
+        <v>0.0644415636531255</v>
       </c>
       <c r="L77" t="n" s="25">
-        <v>2.0624337206815738E-16</v>
+        <v>9.175764408132178E-17</v>
       </c>
       <c r="M77" t="n" s="25">
-        <v>2.682450078574352E-57</v>
+        <v>9.339695633168149E-58</v>
       </c>
       <c r="N77" t="n" s="25">
         <v>0.5</v>
@@ -3247,31 +3247,31 @@
         <v>78.0</v>
       </c>
       <c r="E78" t="n" s="25">
-        <v>0.9979865926771708</v>
+        <v>0.9976174652962008</v>
       </c>
       <c r="F78" t="n" s="25">
-        <v>0.9986191255187278</v>
+        <v>0.9966808199006255</v>
       </c>
       <c r="G78" t="n" s="25">
-        <v>0.9980867246956446</v>
+        <v>0.9933591825202535</v>
       </c>
       <c r="H78" t="n" s="25">
-        <v>0.9847288996748635</v>
+        <v>0.9777819719944899</v>
       </c>
       <c r="I78" t="n" s="25">
-        <v>0.9567671052456506</v>
+        <v>0.9188169161409441</v>
       </c>
       <c r="J78" t="n" s="25">
-        <v>0.040838746917168024</v>
+        <v>0.003180959160768944</v>
       </c>
       <c r="K78" t="n" s="25">
-        <v>0.6296129900531172</v>
+        <v>0.6067965165406993</v>
       </c>
       <c r="L78" t="n" s="25">
-        <v>0.004503937083683162</v>
+        <v>0.0023914608523664684</v>
       </c>
       <c r="M78" t="n" s="25">
-        <v>2.1774399636236756E-21</v>
+        <v>1.1951086284001308E-22</v>
       </c>
       <c r="N78" t="n" s="25">
         <v>0.5</v>
@@ -3282,31 +3282,31 @@
         <v>79.0</v>
       </c>
       <c r="E79" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F79" t="n" s="25">
-        <v>0.9823975914707522</v>
+        <v>0.9655847401513041</v>
       </c>
       <c r="G79" t="n" s="25">
-        <v>0.9524342112839376</v>
+        <v>0.8825654986890096</v>
       </c>
       <c r="H79" t="n" s="25">
-        <v>0.9646770834947758</v>
+        <v>0.9450565986828066</v>
       </c>
       <c r="I79" t="n" s="25">
-        <v>0.9705767678127192</v>
+        <v>0.9287578910962051</v>
       </c>
       <c r="J79" t="n" s="25">
-        <v>0.2909944670487843</v>
+        <v>0.01003291600188247</v>
       </c>
       <c r="K79" t="n" s="25">
-        <v>0.35668184612422493</v>
+        <v>0.32389368148086434</v>
       </c>
       <c r="L79" t="n" s="25">
-        <v>4.3286890715553566E-5</v>
+        <v>1.6330943975827862E-5</v>
       </c>
       <c r="M79" t="n" s="25">
-        <v>6.17040491379803E-22</v>
+        <v>1.491692221161213E-23</v>
       </c>
       <c r="N79" t="n" s="25">
         <v>0.5</v>
@@ -3317,31 +3317,31 @@
         <v>80.0</v>
       </c>
       <c r="E80" t="n" s="25">
-        <v>0.9693397749847817</v>
+        <v>0.9643582431900437</v>
       </c>
       <c r="F80" t="n" s="25">
-        <v>0.5180947529423412</v>
+        <v>0.46368639449475174</v>
       </c>
       <c r="G80" t="n" s="25">
-        <v>0.006732342903514477</v>
+        <v>0.004876116448328263</v>
       </c>
       <c r="H80" t="n" s="25">
-        <v>0.6396134482104127</v>
+        <v>0.5798353435882042</v>
       </c>
       <c r="I80" t="n" s="25">
-        <v>0.25806061736830455</v>
+        <v>0.1173014350972317</v>
       </c>
       <c r="J80" t="n" s="25">
-        <v>7.266699708285919E-13</v>
+        <v>1.4451627987953043E-13</v>
       </c>
       <c r="K80" t="n" s="25">
-        <v>0.3885205217969766</v>
+        <v>0.32088503680355684</v>
       </c>
       <c r="L80" t="n" s="25">
-        <v>7.644905642498496E-9</v>
+        <v>1.5843651345851906E-9</v>
       </c>
       <c r="M80" t="n" s="25">
-        <v>7.884882190628956E-41</v>
+        <v>8.996402732906086E-42</v>
       </c>
       <c r="N80" t="n" s="25">
         <v>0.5</v>
@@ -3352,31 +3352,31 @@
         <v>81.0</v>
       </c>
       <c r="E81" t="n" s="25">
-        <v>0.009274088978339423</v>
+        <v>0.009129956400438528</v>
       </c>
       <c r="F81" t="n" s="25">
-        <v>9.899589195493121E-6</v>
+        <v>8.513402347275752E-6</v>
       </c>
       <c r="G81" t="n" s="25">
-        <v>9.325194910254631E-9</v>
+        <v>3.5019539741072607E-9</v>
       </c>
       <c r="H81" t="n" s="25">
-        <v>8.568507613238362E-6</v>
+        <v>7.486626629864194E-6</v>
       </c>
       <c r="I81" t="n" s="25">
-        <v>5.400814419732235E-15</v>
+        <v>2.606031947037565E-15</v>
       </c>
       <c r="J81" t="n" s="25">
-        <v>1.0</v>
+        <v>2.4092177060710695E-25</v>
       </c>
       <c r="K81" t="n" s="25">
-        <v>7.2007287597985464E-9</v>
+        <v>4.724143898265788E-9</v>
       </c>
       <c r="L81" t="n" s="25">
-        <v>1.0</v>
+        <v>3.4524346772599326E-26</v>
       </c>
       <c r="M81" t="n" s="25">
-        <v>1.0</v>
+        <v>1.3667826358126816E-48</v>
       </c>
       <c r="N81" t="n" s="25">
         <v>0.5</v>
@@ -3387,31 +3387,31 @@
         <v>82.0</v>
       </c>
       <c r="E82" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F82" t="n" s="25">
-        <v>0.8855670233005039</v>
+        <v>0.8531026301653903</v>
       </c>
       <c r="G82" t="n" s="25">
-        <v>0.028602476855803333</v>
+        <v>0.018608234904934347</v>
       </c>
       <c r="H82" t="n" s="25">
-        <v>0.9549716415050771</v>
+        <v>0.9414484015845368</v>
       </c>
       <c r="I82" t="n" s="25">
-        <v>0.7568413994092904</v>
+        <v>0.5748491263568507</v>
       </c>
       <c r="J82" t="n" s="25">
-        <v>2.776833314171003E-11</v>
+        <v>3.5111135500620486E-12</v>
       </c>
       <c r="K82" t="n" s="25">
-        <v>0.6846975208083549</v>
+        <v>0.6579231261334871</v>
       </c>
       <c r="L82" t="n" s="25">
-        <v>2.254321516620571E-8</v>
+        <v>8.828275383891715E-9</v>
       </c>
       <c r="M82" t="n" s="25">
-        <v>1.9165896397439614E-40</v>
+        <v>2.3807959018045974E-41</v>
       </c>
       <c r="N82" t="n" s="25">
         <v>0.5</v>
@@ -3422,31 +3422,31 @@
         <v>83.0</v>
       </c>
       <c r="E83" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F83" t="n" s="25">
-        <v>0.8850287460780594</v>
+        <v>0.852611324187856</v>
       </c>
       <c r="G83" t="n" s="25">
-        <v>0.012731298569436385</v>
+        <v>0.009413260618673173</v>
       </c>
       <c r="H83" t="n" s="25">
-        <v>0.9549716415050771</v>
+        <v>0.9414484015845368</v>
       </c>
       <c r="I83" t="n" s="25">
-        <v>0.7568413928436144</v>
+        <v>0.5748491201497486</v>
       </c>
       <c r="J83" t="n" s="25">
-        <v>4.068325263812227E-13</v>
+        <v>8.776948710929646E-14</v>
       </c>
       <c r="K83" t="n" s="25">
-        <v>0.684697513250398</v>
+        <v>0.657923120492643</v>
       </c>
       <c r="L83" t="n" s="25">
-        <v>4.508643114552588E-9</v>
+        <v>1.7656550892484958E-9</v>
       </c>
       <c r="M83" t="n" s="25">
-        <v>1.8445976440319179E-44</v>
+        <v>3.64844787873424E-45</v>
       </c>
       <c r="N83" t="n" s="25">
         <v>0.5</v>
@@ -3457,31 +3457,31 @@
         <v>84.0</v>
       </c>
       <c r="E84" t="n" s="25">
-        <v>0.9985217895258434</v>
+        <v>0.998191269788162</v>
       </c>
       <c r="F84" t="n" s="25">
-        <v>0.9999818288415144</v>
+        <v>0.9999457169761461</v>
       </c>
       <c r="G84" t="n" s="25">
-        <v>0.9999979297042105</v>
+        <v>0.9999620782004484</v>
       </c>
       <c r="H84" t="n" s="25">
-        <v>0.9998085494991856</v>
+        <v>0.9995834604507816</v>
       </c>
       <c r="I84" t="n" s="25">
-        <v>0.999999278556337</v>
+        <v>0.999982776530552</v>
       </c>
       <c r="J84" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999927678334048</v>
       </c>
       <c r="K84" t="n" s="25">
-        <v>0.9794590453781896</v>
+        <v>0.952627685640392</v>
       </c>
       <c r="L84" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9787699044427318</v>
       </c>
       <c r="M84" t="n" s="25">
-        <v>1.0</v>
+        <v>0.0023610659999643846</v>
       </c>
       <c r="N84" t="n" s="25">
         <v>0.5</v>
@@ -3492,31 +3492,31 @@
         <v>85.0</v>
       </c>
       <c r="E85" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F85" t="n" s="25">
-        <v>0.9999909568154958</v>
+        <v>0.9999701488634093</v>
       </c>
       <c r="G85" t="n" s="25">
-        <v>0.9999999965190549</v>
+        <v>0.9999998599289657</v>
       </c>
       <c r="H85" t="n" s="25">
-        <v>0.9992313084944262</v>
+        <v>0.9985768795621054</v>
       </c>
       <c r="I85" t="n" s="25">
-        <v>0.9999999942194959</v>
+        <v>0.9999998247013931</v>
       </c>
       <c r="J85" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999998197321517</v>
       </c>
       <c r="K85" t="n" s="25">
-        <v>0.9991956325678838</v>
+        <v>0.9976753177865405</v>
       </c>
       <c r="L85" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9993599212627551</v>
       </c>
       <c r="M85" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9780732167933316</v>
       </c>
       <c r="N85" t="n" s="25">
         <v>0.5</v>
@@ -3527,31 +3527,31 @@
         <v>86.0</v>
       </c>
       <c r="E86" t="n" s="25">
-        <v>0.9983262481363204</v>
+        <v>0.9979794107157651</v>
       </c>
       <c r="F86" t="n" s="25">
-        <v>0.9990243483871658</v>
+        <v>0.9975328926519826</v>
       </c>
       <c r="G86" t="n" s="25">
-        <v>0.9965708532530543</v>
+        <v>0.9876161189849761</v>
       </c>
       <c r="H86" t="n" s="25">
-        <v>0.996870411304369</v>
+        <v>0.9943354937007913</v>
       </c>
       <c r="I86" t="n" s="25">
-        <v>0.9949955505973085</v>
+        <v>0.9847847608227784</v>
       </c>
       <c r="J86" t="n" s="25">
-        <v>0.9995229706577597</v>
+        <v>0.9773724975963346</v>
       </c>
       <c r="K86" t="n" s="25">
-        <v>0.8571868591145332</v>
+        <v>0.8169082496553272</v>
       </c>
       <c r="L86" t="n" s="25">
-        <v>0.6021615837412397</v>
+        <v>0.2927694849031686</v>
       </c>
       <c r="M86" t="n" s="25">
-        <v>3.142756205932111E-11</v>
+        <v>3.222653066816859E-13</v>
       </c>
       <c r="N86" t="n" s="25">
         <v>0.5</v>
@@ -3562,31 +3562,31 @@
         <v>87.0</v>
       </c>
       <c r="E87" t="n" s="25">
-        <v>0.9981064170512541</v>
+        <v>0.9977443565714161</v>
       </c>
       <c r="F87" t="n" s="25">
-        <v>0.9996261333780955</v>
+        <v>0.9989115672846522</v>
       </c>
       <c r="G87" t="n" s="25">
-        <v>0.9999816980026025</v>
+        <v>0.9996520009946784</v>
       </c>
       <c r="H87" t="n" s="25">
-        <v>0.9925392480249772</v>
+        <v>0.9879841591186874</v>
       </c>
       <c r="I87" t="n" s="25">
-        <v>0.9986626372308693</v>
+        <v>0.9873303374371106</v>
       </c>
       <c r="J87" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9996278590097413</v>
       </c>
       <c r="K87" t="n" s="25">
-        <v>0.8997185421477653</v>
+        <v>0.8499752033133008</v>
       </c>
       <c r="L87" t="n" s="25">
-        <v>1.0</v>
+        <v>0.7808314770214627</v>
       </c>
       <c r="M87" t="n" s="25">
-        <v>1.0</v>
+        <v>2.660019989173678E-6</v>
       </c>
       <c r="N87" t="n" s="25">
         <v>0.5</v>
@@ -3597,31 +3597,31 @@
         <v>88.0</v>
       </c>
       <c r="E88" t="n" s="25">
-        <v>0.0018334235605042524</v>
+        <v>0.0018080660331459594</v>
       </c>
       <c r="F88" t="n" s="25">
-        <v>7.98740173503725E-8</v>
+        <v>6.884593431305454E-8</v>
       </c>
       <c r="G88" t="n" s="25">
-        <v>1.4572049028125034E-11</v>
+        <v>5.485433631341519E-12</v>
       </c>
       <c r="H88" t="n" s="25">
-        <v>3.9937005571062644E-7</v>
+        <v>3.442296660517369E-7</v>
       </c>
       <c r="I88" t="n" s="25">
-        <v>2.7303870174320274E-17</v>
+        <v>1.1300783423995768E-17</v>
       </c>
       <c r="J88" t="n" s="25">
-        <v>2.5634602593884143E-25</v>
+        <v>4.1496428097902815E-27</v>
       </c>
       <c r="K88" t="n" s="25">
-        <v>1.2852808096427352E-11</v>
+        <v>1.08646099882982E-11</v>
       </c>
       <c r="L88" t="n" s="25">
-        <v>4.9120272814155644E-30</v>
+        <v>1.9658887233104077E-30</v>
       </c>
       <c r="M88" t="n" s="25">
-        <v>4.6742521079384215E-52</v>
+        <v>9.989681356759325E-54</v>
       </c>
       <c r="N88" t="n" s="25">
         <v>0.5</v>
@@ -3632,31 +3632,31 @@
         <v>89.0</v>
       </c>
       <c r="E89" t="n" s="25">
-        <v>0.9983262481363204</v>
+        <v>0.9979794107157651</v>
       </c>
       <c r="F89" t="n" s="25">
-        <v>0.9669157887841472</v>
+        <v>0.9421577278778447</v>
       </c>
       <c r="G89" t="n" s="25">
-        <v>0.9787661793337159</v>
+        <v>0.9375965715329541</v>
       </c>
       <c r="H89" t="n" s="25">
-        <v>0.933122605192157</v>
+        <v>0.9078247735855084</v>
       </c>
       <c r="I89" t="n" s="25">
-        <v>0.7814491416598728</v>
+        <v>0.6028894084017665</v>
       </c>
       <c r="J89" t="n" s="25">
-        <v>0.7738694318733408</v>
+        <v>0.04878999505413172</v>
       </c>
       <c r="K89" t="n" s="25">
-        <v>0.720529312813719</v>
+        <v>0.6318013817586042</v>
       </c>
       <c r="L89" t="n" s="25">
-        <v>0.021968774194345096</v>
+        <v>0.0029923954971583467</v>
       </c>
       <c r="M89" t="n" s="25">
-        <v>8.723786650963684E-14</v>
+        <v>5.825358257442112E-16</v>
       </c>
       <c r="N89" t="n" s="25">
         <v>0.5</v>
@@ -3667,31 +3667,31 @@
         <v>90.0</v>
       </c>
       <c r="E90" t="n" s="25">
-        <v>0.9985217895258434</v>
+        <v>0.998191269788162</v>
       </c>
       <c r="F90" t="n" s="25">
-        <v>0.9999456991008694</v>
+        <v>0.9998599119127979</v>
       </c>
       <c r="G90" t="n" s="25">
-        <v>0.996964878613782</v>
+        <v>0.9907493675009935</v>
       </c>
       <c r="H90" t="n" s="25">
-        <v>0.9998085494991856</v>
+        <v>0.9995834604507816</v>
       </c>
       <c r="I90" t="n" s="25">
-        <v>0.9997581825718037</v>
+        <v>0.9990261831921359</v>
       </c>
       <c r="J90" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9890407533284306</v>
       </c>
       <c r="K90" t="n" s="25">
-        <v>0.946144888878893</v>
+        <v>0.9167528588166226</v>
       </c>
       <c r="L90" t="n" s="25">
-        <v>1.0</v>
+        <v>0.6483909259223047</v>
       </c>
       <c r="M90" t="n" s="25">
-        <v>1.0</v>
+        <v>6.3847883591353865E-12</v>
       </c>
       <c r="N90" t="n" s="25">
         <v>0.5</v>
@@ -3702,31 +3702,31 @@
         <v>91.0</v>
       </c>
       <c r="E91" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F91" t="n" s="25">
-        <v>0.8589600203628848</v>
+        <v>0.8292629689797992</v>
       </c>
       <c r="G91" t="n" s="25">
-        <v>0.02860247683630166</v>
+        <v>0.01860823489846028</v>
       </c>
       <c r="H91" t="n" s="25">
-        <v>0.8576668123818945</v>
+        <v>0.8327842515240843</v>
       </c>
       <c r="I91" t="n" s="25">
-        <v>0.2728322747059545</v>
+        <v>0.14870618515123354</v>
       </c>
       <c r="J91" t="n" s="25">
-        <v>2.550799437247607E-14</v>
+        <v>5.082544886810971E-15</v>
       </c>
       <c r="K91" t="n" s="25">
-        <v>0.3028013876667807</v>
+        <v>0.27780307793893233</v>
       </c>
       <c r="L91" t="n" s="25">
-        <v>3.579809300423503E-11</v>
+        <v>1.4438392025680408E-11</v>
       </c>
       <c r="M91" t="n" s="25">
-        <v>8.470330948763387E-46</v>
+        <v>1.6290618999661526E-46</v>
       </c>
       <c r="N91" t="n" s="25">
         <v>0.5</v>
@@ -3737,31 +3737,31 @@
         <v>92.0</v>
       </c>
       <c r="E92" t="n" s="25">
-        <v>0.9919925665664568</v>
+        <v>0.9906007289948505</v>
       </c>
       <c r="F92" t="n" s="25">
-        <v>0.9874907508663707</v>
+        <v>0.9680123561355236</v>
       </c>
       <c r="G92" t="n" s="25">
-        <v>0.9995377700154833</v>
+        <v>0.9927266732798984</v>
       </c>
       <c r="H92" t="n" s="25">
-        <v>0.9840325652018462</v>
+        <v>0.974143404100334</v>
       </c>
       <c r="I92" t="n" s="25">
-        <v>0.9969342713818611</v>
+        <v>0.975571789952546</v>
       </c>
       <c r="J92" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9993102958912609</v>
       </c>
       <c r="K92" t="n" s="25">
-        <v>0.5103649518289399</v>
+        <v>0.4417462218666588</v>
       </c>
       <c r="L92" t="n" s="25">
-        <v>1.0</v>
+        <v>0.07417154065395791</v>
       </c>
       <c r="M92" t="n" s="25">
-        <v>1.0</v>
+        <v>4.480406254991384E-9</v>
       </c>
       <c r="N92" t="n" s="25">
         <v>0.5</v>
@@ -3772,31 +3772,31 @@
         <v>93.0</v>
       </c>
       <c r="E93" t="n" s="25">
-        <v>0.9985217895258434</v>
+        <v>0.998191269788162</v>
       </c>
       <c r="F93" t="n" s="25">
-        <v>0.9974224431872554</v>
+        <v>0.9945287166475735</v>
       </c>
       <c r="G93" t="n" s="25">
-        <v>0.893662813353577</v>
+        <v>0.8254560415135183</v>
       </c>
       <c r="H93" t="n" s="25">
-        <v>0.9937478363408632</v>
+        <v>0.9885811716824228</v>
       </c>
       <c r="I93" t="n" s="25">
-        <v>0.9967705404579262</v>
+        <v>0.9911888676437809</v>
       </c>
       <c r="J93" t="n" s="25">
-        <v>4.551694936344481E-4</v>
+        <v>6.077705441708032E-5</v>
       </c>
       <c r="K93" t="n" s="25">
-        <v>0.38492103644364045</v>
+        <v>0.34817768624309997</v>
       </c>
       <c r="L93" t="n" s="25">
-        <v>6.245728883711807E-6</v>
+        <v>2.5743880715859345E-6</v>
       </c>
       <c r="M93" t="n" s="25">
-        <v>4.3500383840492036E-30</v>
+        <v>3.8151584145184188E-31</v>
       </c>
       <c r="N93" t="n" s="25">
         <v>0.5</v>
@@ -3807,31 +3807,31 @@
         <v>94.0</v>
       </c>
       <c r="E94" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F94" t="n" s="25">
-        <v>0.9999909568154958</v>
+        <v>0.9999701488634093</v>
       </c>
       <c r="G94" t="n" s="25">
-        <v>0.9999999965190549</v>
+        <v>0.9999998599289657</v>
       </c>
       <c r="H94" t="n" s="25">
-        <v>0.9989369303900907</v>
+        <v>0.998121328040423</v>
       </c>
       <c r="I94" t="n" s="25">
-        <v>0.9999999819210462</v>
+        <v>0.9999995434416108</v>
       </c>
       <c r="J94" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999998090946709</v>
       </c>
       <c r="K94" t="n" s="25">
-        <v>0.994284011908115</v>
+        <v>0.9880358935432463</v>
       </c>
       <c r="L94" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9955494876143561</v>
       </c>
       <c r="M94" t="n" s="25">
-        <v>1.0</v>
+        <v>0.19871998960861423</v>
       </c>
       <c r="N94" t="n" s="25">
         <v>0.5</v>
@@ -3842,31 +3842,31 @@
         <v>95.0</v>
       </c>
       <c r="E95" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F95" t="n" s="25">
-        <v>0.983770724577624</v>
+        <v>0.9713168605332934</v>
       </c>
       <c r="G95" t="n" s="25">
-        <v>0.7863514669240206</v>
+        <v>0.7032758697233459</v>
       </c>
       <c r="H95" t="n" s="25">
-        <v>0.9765302422078793</v>
+        <v>0.9605276991791556</v>
       </c>
       <c r="I95" t="n" s="25">
-        <v>0.9705553217983395</v>
+        <v>0.9287433058403297</v>
       </c>
       <c r="J95" t="n" s="25">
-        <v>2.2554178486727055E-6</v>
+        <v>4.520213463258892E-7</v>
       </c>
       <c r="K95" t="n" s="25">
-        <v>0.7429684946330231</v>
+        <v>0.6560334403299856</v>
       </c>
       <c r="L95" t="n" s="25">
-        <v>2.688088639901849E-4</v>
+        <v>3.6206056588220606E-5</v>
       </c>
       <c r="M95" t="n" s="25">
-        <v>5.716512469125743E-30</v>
+        <v>3.5032606716488154E-31</v>
       </c>
       <c r="N95" t="n" s="25">
         <v>0.5</v>
@@ -3877,31 +3877,31 @@
         <v>96.0</v>
       </c>
       <c r="E96" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F96" t="n" s="25">
-        <v>0.9990909972063666</v>
+        <v>0.9979891254662756</v>
       </c>
       <c r="G96" t="n" s="25">
-        <v>0.9998326654238191</v>
+        <v>0.9993309788651773</v>
       </c>
       <c r="H96" t="n" s="25">
-        <v>0.861497220710062</v>
+        <v>0.8264636597958084</v>
       </c>
       <c r="I96" t="n" s="25">
-        <v>0.7063061323600285</v>
+        <v>0.5213373001044563</v>
       </c>
       <c r="J96" t="n" s="25">
-        <v>1.0</v>
+        <v>0.024310534257215227</v>
       </c>
       <c r="K96" t="n" s="25">
-        <v>0.20899873747115674</v>
+        <v>0.13215364759610582</v>
       </c>
       <c r="L96" t="n" s="25">
-        <v>1.0</v>
+        <v>3.797134443942029E-5</v>
       </c>
       <c r="M96" t="n" s="25">
-        <v>1.0</v>
+        <v>4.7333695941580876E-14</v>
       </c>
       <c r="N96" t="n" s="25">
         <v>0.5</v>
@@ -3912,31 +3912,31 @@
         <v>97.0</v>
       </c>
       <c r="E97" t="n" s="25">
-        <v>0.9979865926771708</v>
+        <v>0.9976174652962008</v>
       </c>
       <c r="F97" t="n" s="25">
-        <v>0.9999848936701132</v>
+        <v>0.9999531319369528</v>
       </c>
       <c r="G97" t="n" s="25">
-        <v>0.999999319505125</v>
+        <v>0.9999831210761809</v>
       </c>
       <c r="H97" t="n" s="25">
-        <v>0.9973577466310172</v>
+        <v>0.995807563071868</v>
       </c>
       <c r="I97" t="n" s="25">
-        <v>0.9999792771008944</v>
+        <v>0.9997438986472116</v>
       </c>
       <c r="J97" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9998584354738478</v>
       </c>
       <c r="K97" t="n" s="25">
-        <v>0.9879027916516379</v>
+        <v>0.9770147563333503</v>
       </c>
       <c r="L97" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9885763513154346</v>
       </c>
       <c r="M97" t="n" s="25">
-        <v>1.0</v>
+        <v>3.221872510820014E-4</v>
       </c>
       <c r="N97" t="n" s="25">
         <v>0.5</v>
@@ -3947,31 +3947,31 @@
         <v>98.0</v>
       </c>
       <c r="E98" t="n" s="25">
-        <v>0.9985217895258434</v>
+        <v>0.998191269788162</v>
       </c>
       <c r="F98" t="n" s="25">
-        <v>0.9963511850167688</v>
+        <v>0.9932219506214656</v>
       </c>
       <c r="G98" t="n" s="25">
-        <v>0.9954561207094894</v>
+        <v>0.9894895209497525</v>
       </c>
       <c r="H98" t="n" s="25">
-        <v>0.8800349435229501</v>
+        <v>0.8456659590755771</v>
       </c>
       <c r="I98" t="n" s="25">
-        <v>0.8176819956292545</v>
+        <v>0.6524871146647424</v>
       </c>
       <c r="J98" t="n" s="25">
-        <v>3.332731354596359E-5</v>
+        <v>3.627537421055725E-6</v>
       </c>
       <c r="K98" t="n" s="25">
-        <v>0.0540667282795873</v>
+        <v>0.04088980576494939</v>
       </c>
       <c r="L98" t="n" s="25">
-        <v>4.591027915767802E-8</v>
+        <v>9.569181728682876E-9</v>
       </c>
       <c r="M98" t="n" s="25">
-        <v>9.530562887199871E-29</v>
+        <v>4.963473917996501E-30</v>
       </c>
       <c r="N98" t="n" s="25">
         <v>0.5</v>
@@ -3982,31 +3982,31 @@
         <v>99.0</v>
       </c>
       <c r="E99" t="n" s="25">
-        <v>0.9981064170512541</v>
+        <v>0.9977443565714161</v>
       </c>
       <c r="F99" t="n" s="25">
-        <v>0.9998699177827105</v>
+        <v>0.9996444290820471</v>
       </c>
       <c r="G99" t="n" s="25">
-        <v>0.9999276571407408</v>
+        <v>0.9996658440350664</v>
       </c>
       <c r="H99" t="n" s="25">
-        <v>0.9782605329973527</v>
+        <v>0.9661517851410644</v>
       </c>
       <c r="I99" t="n" s="25">
-        <v>0.9657384919342009</v>
+        <v>0.9306928243592171</v>
       </c>
       <c r="J99" t="n" s="25">
-        <v>1.0</v>
+        <v>0.5223326278914493</v>
       </c>
       <c r="K99" t="n" s="25">
-        <v>0.6895500741341667</v>
+        <v>0.5920382772513163</v>
       </c>
       <c r="L99" t="n" s="25">
-        <v>1.0</v>
+        <v>0.1988571164867725</v>
       </c>
       <c r="M99" t="n" s="25">
-        <v>1.0</v>
+        <v>4.4734410337757674E-11</v>
       </c>
       <c r="N99" t="n" s="25">
         <v>0.5</v>
@@ -4017,31 +4017,31 @@
         <v>100.0</v>
       </c>
       <c r="E100" t="n" s="25">
-        <v>0.7926599173741126</v>
+        <v>0.778005852028893</v>
       </c>
       <c r="F100" t="n" s="25">
-        <v>0.14528884962888874</v>
+        <v>0.12462067466233395</v>
       </c>
       <c r="G100" t="n" s="25">
-        <v>1.7296384031037284E-4</v>
+        <v>1.0789103993433484E-4</v>
       </c>
       <c r="H100" t="n" s="25">
-        <v>0.11381839924930448</v>
+        <v>0.09985647943672238</v>
       </c>
       <c r="I100" t="n" s="25">
-        <v>1.5121496553690511E-5</v>
+        <v>6.5070632778608925E-6</v>
       </c>
       <c r="J100" t="n" s="25">
-        <v>8.583678828581548E-21</v>
+        <v>1.782927970648414E-21</v>
       </c>
       <c r="K100" t="n" s="25">
-        <v>0.0013587093967249988</v>
+        <v>0.0010038279196054344</v>
       </c>
       <c r="L100" t="n" s="25">
-        <v>8.936159722429E-18</v>
+        <v>2.148973997239239E-18</v>
       </c>
       <c r="M100" t="n" s="25">
-        <v>9.531092557784035E-52</v>
+        <v>1.2022574491634929E-52</v>
       </c>
       <c r="N100" t="n" s="25">
         <v>0.5</v>
@@ -4052,31 +4052,31 @@
         <v>101.0</v>
       </c>
       <c r="E101" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F101" t="n" s="25">
-        <v>0.998925444346692</v>
+        <v>0.9973374472169715</v>
       </c>
       <c r="G101" t="n" s="25">
-        <v>0.998596933454267</v>
+        <v>0.9892938893942904</v>
       </c>
       <c r="H101" t="n" s="25">
-        <v>0.9989737834088048</v>
+        <v>0.9978333925853986</v>
       </c>
       <c r="I101" t="n" s="25">
-        <v>0.9999099575666369</v>
+        <v>0.9986074767822047</v>
       </c>
       <c r="J101" t="n" s="25">
-        <v>0.9999777206736942</v>
+        <v>0.9989446071046413</v>
       </c>
       <c r="K101" t="n" s="25">
-        <v>0.9947198142008316</v>
+        <v>0.98214016806867</v>
       </c>
       <c r="L101" t="n" s="25">
-        <v>0.9993209793365128</v>
+        <v>0.9931077843281607</v>
       </c>
       <c r="M101" t="n" s="25">
-        <v>3.245122099866355E-5</v>
+        <v>3.2213185209847217E-7</v>
       </c>
       <c r="N101" t="n" s="25">
         <v>0.5</v>
@@ -4087,31 +4087,31 @@
         <v>102.0</v>
       </c>
       <c r="E102" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F102" t="n" s="25">
-        <v>0.8855670233005039</v>
+        <v>0.8531026301653903</v>
       </c>
       <c r="G102" t="n" s="25">
-        <v>0.02860247693498967</v>
+        <v>0.018608234931286275</v>
       </c>
       <c r="H102" t="n" s="25">
-        <v>0.9664776658482341</v>
+        <v>0.9544030394487568</v>
       </c>
       <c r="I102" t="n" s="25">
-        <v>0.7568415203330348</v>
+        <v>0.5748492217565258</v>
       </c>
       <c r="J102" t="n" s="25">
-        <v>1.3884166569312858E-10</v>
+        <v>1.7555567750063684E-11</v>
       </c>
       <c r="K102" t="n" s="25">
-        <v>0.8321695208262272</v>
+        <v>0.7932886070930033</v>
       </c>
       <c r="L102" t="n" s="25">
-        <v>1.2586836807118266E-6</v>
+        <v>2.9853938547949356E-7</v>
       </c>
       <c r="M102" t="n" s="25">
-        <v>1.9913911046201014E-36</v>
+        <v>1.5535890479344143E-37</v>
       </c>
       <c r="N102" t="n" s="25">
         <v>0.5</v>
@@ -4122,31 +4122,31 @@
         <v>103.0</v>
       </c>
       <c r="E103" t="n" s="25">
-        <v>0.9983262481363204</v>
+        <v>0.9979794107157651</v>
       </c>
       <c r="F103" t="n" s="25">
-        <v>0.9509466653223423</v>
+        <v>0.9249571419734537</v>
       </c>
       <c r="G103" t="n" s="25">
-        <v>0.06057185923234129</v>
+        <v>0.04535842059318971</v>
       </c>
       <c r="H103" t="n" s="25">
-        <v>0.9841518903187843</v>
+        <v>0.9751247584055288</v>
       </c>
       <c r="I103" t="n" s="25">
-        <v>0.9668688433370041</v>
+        <v>0.9211518234762215</v>
       </c>
       <c r="J103" t="n" s="25">
-        <v>3.6627196861618045E-10</v>
+        <v>7.953696517367795E-11</v>
       </c>
       <c r="K103" t="n" s="25">
-        <v>0.7105082887298859</v>
+        <v>0.682230523468928</v>
       </c>
       <c r="L103" t="n" s="25">
-        <v>1.6968314047164799E-7</v>
+        <v>6.662784647551333E-8</v>
       </c>
       <c r="M103" t="n" s="25">
-        <v>1.45844583078132E-40</v>
+        <v>2.5927576622989036E-41</v>
       </c>
       <c r="N103" t="n" s="25">
         <v>0.5</v>
@@ -4157,31 +4157,31 @@
         <v>104.0</v>
       </c>
       <c r="E104" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F104" t="n" s="25">
-        <v>0.8855670233005039</v>
+        <v>0.8531026301653903</v>
       </c>
       <c r="G104" t="n" s="25">
-        <v>0.028602476855803333</v>
+        <v>0.018608234904934347</v>
       </c>
       <c r="H104" t="n" s="25">
-        <v>0.9549716415050771</v>
+        <v>0.9414484015845368</v>
       </c>
       <c r="I104" t="n" s="25">
-        <v>0.7568413994092904</v>
+        <v>0.5748491263568507</v>
       </c>
       <c r="J104" t="n" s="25">
-        <v>2.776833314171003E-11</v>
+        <v>3.5111135500620486E-12</v>
       </c>
       <c r="K104" t="n" s="25">
-        <v>0.6846975208083549</v>
+        <v>0.6579231261334871</v>
       </c>
       <c r="L104" t="n" s="25">
-        <v>2.254321516620571E-8</v>
+        <v>8.828275383891715E-9</v>
       </c>
       <c r="M104" t="n" s="25">
-        <v>1.9165896397439614E-40</v>
+        <v>2.3807959018045974E-41</v>
       </c>
       <c r="N104" t="n" s="25">
         <v>0.5</v>
@@ -4192,31 +4192,31 @@
         <v>105.0</v>
       </c>
       <c r="E105" t="n" s="25">
-        <v>0.9985217895258434</v>
+        <v>0.998191269788162</v>
       </c>
       <c r="F105" t="n" s="25">
-        <v>0.9838796084089257</v>
+        <v>0.9714775864804907</v>
       </c>
       <c r="G105" t="n" s="25">
-        <v>0.9776861401470393</v>
+        <v>0.9495678409524817</v>
       </c>
       <c r="H105" t="n" s="25">
-        <v>0.8923333813365016</v>
+        <v>0.8600471677022005</v>
       </c>
       <c r="I105" t="n" s="25">
-        <v>0.8176816800649873</v>
+        <v>0.6524868805289228</v>
       </c>
       <c r="J105" t="n" s="25">
-        <v>4.654197264008332E-6</v>
+        <v>4.5965380506310306E-7</v>
       </c>
       <c r="K105" t="n" s="25">
-        <v>0.11123850909885855</v>
+        <v>0.09652047713713328</v>
       </c>
       <c r="L105" t="n" s="25">
-        <v>3.2488546816355997E-9</v>
+        <v>1.1583927494614864E-9</v>
       </c>
       <c r="M105" t="n" s="25">
-        <v>1.834514975312333E-33</v>
+        <v>1.5212542937153724E-34</v>
       </c>
       <c r="N105" t="n" s="25">
         <v>0.5</v>
@@ -4227,31 +4227,31 @@
         <v>106.0</v>
       </c>
       <c r="E106" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F106" t="n" s="25">
-        <v>0.8850287460780594</v>
+        <v>0.852611324187856</v>
       </c>
       <c r="G106" t="n" s="25">
-        <v>0.01273129857168232</v>
+        <v>0.009413260619676315</v>
       </c>
       <c r="H106" t="n" s="25">
-        <v>0.9664776658482341</v>
+        <v>0.9544030394487568</v>
       </c>
       <c r="I106" t="n" s="25">
-        <v>0.7568414169563584</v>
+        <v>0.5748491391854469</v>
       </c>
       <c r="J106" t="n" s="25">
-        <v>2.0341626319028042E-12</v>
+        <v>4.3884743554632847E-13</v>
       </c>
       <c r="K106" t="n" s="25">
-        <v>0.8321694428393543</v>
+        <v>0.7932885519645734</v>
       </c>
       <c r="L106" t="n" s="25">
-        <v>2.5173698962815766E-7</v>
+        <v>5.970789135602453E-8</v>
       </c>
       <c r="M106" t="n" s="25">
-        <v>1.9165895991345525E-40</v>
+        <v>2.3807958740335745E-41</v>
       </c>
       <c r="N106" t="n" s="25">
         <v>0.5</v>
@@ -4262,31 +4262,31 @@
         <v>107.0</v>
       </c>
       <c r="E107" t="n" s="25">
-        <v>0.9693197149020973</v>
+        <v>0.9643386826596206</v>
       </c>
       <c r="F107" t="n" s="25">
-        <v>0.6180249266518433</v>
+        <v>0.5412374445904018</v>
       </c>
       <c r="G107" t="n" s="25">
-        <v>0.12802269300506042</v>
+        <v>0.09717894463486593</v>
       </c>
       <c r="H107" t="n" s="25">
-        <v>0.8280455209364213</v>
+        <v>0.7542732434166213</v>
       </c>
       <c r="I107" t="n" s="25">
-        <v>0.7428307869190344</v>
+        <v>0.5072646960921533</v>
       </c>
       <c r="J107" t="n" s="25">
-        <v>8.126060416077716E-8</v>
+        <v>1.5722906784520256E-8</v>
       </c>
       <c r="K107" t="n" s="25">
-        <v>0.7928448261029347</v>
+        <v>0.6818074874561255</v>
       </c>
       <c r="L107" t="n" s="25">
-        <v>4.604576610194184E-5</v>
+        <v>4.94443362671069E-6</v>
       </c>
       <c r="M107" t="n" s="25">
-        <v>3.10901729499213E-31</v>
+        <v>1.8275767216859447E-32</v>
       </c>
       <c r="N107" t="n" s="25">
         <v>0.5</v>
@@ -4297,31 +4297,31 @@
         <v>108.0</v>
       </c>
       <c r="E108" t="n" s="25">
-        <v>0.9984269002730558</v>
+        <v>0.99808811001289</v>
       </c>
       <c r="F108" t="n" s="25">
-        <v>0.9999946208549079</v>
+        <v>0.9999811175492781</v>
       </c>
       <c r="G108" t="n" s="25">
-        <v>0.9999999999830446</v>
+        <v>0.9999999990671342</v>
       </c>
       <c r="H108" t="n" s="25">
-        <v>0.9996952564285416</v>
+        <v>0.9993716041271372</v>
       </c>
       <c r="I108" t="n" s="25">
-        <v>0.9999999999952609</v>
+        <v>0.9999999997538526</v>
       </c>
       <c r="J108" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999735362</v>
       </c>
       <c r="K108" t="n" s="25">
-        <v>0.9996271572300066</v>
+        <v>0.9988240418554456</v>
       </c>
       <c r="L108" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999726888541765</v>
       </c>
       <c r="M108" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999343206013739</v>
       </c>
       <c r="N108" t="n" s="25">
         <v>0.5</v>
@@ -4332,31 +4332,31 @@
         <v>109.0</v>
       </c>
       <c r="E109" t="n" s="25">
-        <v>0.9644903246999944</v>
+        <v>0.959458636134883</v>
       </c>
       <c r="F109" t="n" s="25">
-        <v>0.4953799756625258</v>
+        <v>0.4472804608763575</v>
       </c>
       <c r="G109" t="n" s="25">
-        <v>5.422085634368398E-5</v>
+        <v>3.919853912863238E-5</v>
       </c>
       <c r="H109" t="n" s="25">
-        <v>0.3520029012268131</v>
+        <v>0.32500491786509617</v>
       </c>
       <c r="I109" t="n" s="25">
-        <v>3.923902932117944E-4</v>
+        <v>1.929032315666557E-4</v>
       </c>
       <c r="J109" t="n" s="25">
-        <v>6.66998401046877E-23</v>
+        <v>1.7154762427520583E-23</v>
       </c>
       <c r="K109" t="n" s="25">
-        <v>0.03461704617565691</v>
+        <v>0.03090325177458579</v>
       </c>
       <c r="L109" t="n" s="25">
-        <v>3.322603097703537E-17</v>
+        <v>1.5119682036514194E-17</v>
       </c>
       <c r="M109" t="n" s="25">
-        <v>6.1413201504048684E-58</v>
+        <v>1.5365741039734688E-58</v>
       </c>
       <c r="N109" t="n" s="25">
         <v>0.5</v>
@@ -4367,31 +4367,31 @@
         <v>110.0</v>
       </c>
       <c r="E110" t="n" s="25">
-        <v>0.9983262481363204</v>
+        <v>0.9979794107157651</v>
       </c>
       <c r="F110" t="n" s="25">
-        <v>0.9558020926126606</v>
+        <v>0.9301859243140931</v>
       </c>
       <c r="G110" t="n" s="25">
-        <v>0.4342514639999556</v>
+        <v>0.27402295675841626</v>
       </c>
       <c r="H110" t="n" s="25">
-        <v>0.9841518903187843</v>
+        <v>0.9751247584055288</v>
       </c>
       <c r="I110" t="n" s="25">
-        <v>0.9668692588419543</v>
+        <v>0.921152329379032</v>
       </c>
       <c r="J110" t="n" s="25">
-        <v>1.1350087593131173E-4</v>
+        <v>5.0017787439014165E-6</v>
       </c>
       <c r="K110" t="n" s="25">
-        <v>0.7105097427385192</v>
+        <v>0.6822315887515479</v>
       </c>
       <c r="L110" t="n" s="25">
-        <v>2.120994628663942E-5</v>
+        <v>8.328412001323798E-6</v>
       </c>
       <c r="M110" t="n" s="25">
-        <v>1.635955633519038E-28</v>
+        <v>7.204491301169996E-30</v>
       </c>
       <c r="N110" t="n" s="25">
         <v>0.5</v>
@@ -4402,31 +4402,31 @@
         <v>111.0</v>
       </c>
       <c r="E111" t="n" s="25">
-        <v>0.9982195262501722</v>
+        <v>0.9978649144801968</v>
       </c>
       <c r="F111" t="n" s="25">
-        <v>0.8850287460780594</v>
+        <v>0.852611324187856</v>
       </c>
       <c r="G111" t="n" s="25">
-        <v>0.012731298569436385</v>
+        <v>0.009413260618673173</v>
       </c>
       <c r="H111" t="n" s="25">
-        <v>0.9549716415050771</v>
+        <v>0.9414484015845368</v>
       </c>
       <c r="I111" t="n" s="25">
-        <v>0.7568413928436144</v>
+        <v>0.5748491201497486</v>
       </c>
       <c r="J111" t="n" s="25">
-        <v>4.068325263812227E-13</v>
+        <v>8.776948710929646E-14</v>
       </c>
       <c r="K111" t="n" s="25">
-        <v>0.684697513250398</v>
+        <v>0.657923120492643</v>
       </c>
       <c r="L111" t="n" s="25">
-        <v>4.508643114552588E-9</v>
+        <v>1.7656550892484958E-9</v>
       </c>
       <c r="M111" t="n" s="25">
-        <v>1.8445976440319179E-44</v>
+        <v>3.64844787873424E-45</v>
       </c>
       <c r="N111" t="n" s="25">
         <v>0.5</v>

--- a/data/old_posteriors/no_elementary_skills/simple_model/leak/constrained/results_model1a_leak_constrained.xlsx
+++ b/data/old_posteriors/no_elementary_skills/simple_model/leak/constrained/results_model1a_leak_constrained.xlsx
@@ -648,9 +648,7 @@
       <c r="M3" t="n" s="25">
         <v>5.824631564093028E-10</v>
       </c>
-      <c r="N3" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N3" s="25"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -683,9 +681,7 @@
       <c r="M4" t="n" s="25">
         <v>0.9780732167933316</v>
       </c>
-      <c r="N4" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N4" s="25"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -718,9 +714,7 @@
       <c r="M5" t="n" s="25">
         <v>0.9999996009236659</v>
       </c>
-      <c r="N5" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N5" s="25"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -753,9 +747,7 @@
       <c r="M6" t="n" s="25">
         <v>0.9999999975283814</v>
       </c>
-      <c r="N6" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N6" s="25"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -788,9 +780,7 @@
       <c r="M7" t="n" s="25">
         <v>0.9992196841321765</v>
       </c>
-      <c r="N7" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N7" s="25"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -823,9 +813,7 @@
       <c r="M8" t="n" s="25">
         <v>0.001191681151162678</v>
       </c>
-      <c r="N8" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N8" s="25"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -858,9 +846,7 @@
       <c r="M9" t="n" s="25">
         <v>0.9999999999845792</v>
       </c>
-      <c r="N9" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N9" s="25"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -893,9 +879,7 @@
       <c r="M10" t="n" s="25">
         <v>0.9998661857540465</v>
       </c>
-      <c r="N10" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N10" s="25"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -928,9 +912,7 @@
       <c r="M11" t="n" s="25">
         <v>0.5262544629980003</v>
       </c>
-      <c r="N11" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N11" s="25"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -963,9 +945,7 @@
       <c r="M12" t="n" s="25">
         <v>0.9999999999845792</v>
       </c>
-      <c r="N12" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N12" s="25"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -998,9 +978,7 @@
       <c r="M13" t="n" s="25">
         <v>3.2561763127383704E-12</v>
       </c>
-      <c r="N13" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N13" s="25"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1033,9 +1011,7 @@
       <c r="M14" t="n" s="25">
         <v>5.575473788500377E-26</v>
       </c>
-      <c r="N14" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N14" s="25"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1068,9 +1044,7 @@
       <c r="M15" t="n" s="25">
         <v>4.2799041420288426E-11</v>
       </c>
-      <c r="N15" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N15" s="25"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1103,9 +1077,7 @@
       <c r="M16" t="n" s="25">
         <v>0.5979177216771808</v>
       </c>
-      <c r="N16" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N16" s="25"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1138,9 +1110,7 @@
       <c r="M17" t="n" s="25">
         <v>0.9999927194603087</v>
       </c>
-      <c r="N17" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N17" s="25"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1173,9 +1143,7 @@
       <c r="M18" t="n" s="25">
         <v>0.9999999999991507</v>
       </c>
-      <c r="N18" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N18" s="25"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1208,9 +1176,7 @@
       <c r="M19" t="n" s="25">
         <v>0.9999999975283814</v>
       </c>
-      <c r="N19" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N19" s="25"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1243,9 +1209,7 @@
       <c r="M20" t="n" s="25">
         <v>0.9999996009236659</v>
       </c>
-      <c r="N20" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N20" s="25"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1278,9 +1242,7 @@
       <c r="M21" t="n" s="25">
         <v>0.9999999999999948</v>
       </c>
-      <c r="N21" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N21" s="25"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1313,9 +1275,7 @@
       <c r="M22" t="n" s="25">
         <v>0.9999999975283814</v>
       </c>
-      <c r="N22" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N22" s="25"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1348,9 +1308,7 @@
       <c r="M23" t="n" s="25">
         <v>0.9999999998639816</v>
       </c>
-      <c r="N23" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N23" s="25"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1383,9 +1341,7 @@
       <c r="M24" t="n" s="25">
         <v>0.9999999975283814</v>
       </c>
-      <c r="N24" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N24" s="25"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1418,9 +1374,7 @@
       <c r="M25" t="n" s="25">
         <v>0.9999582430501192</v>
       </c>
-      <c r="N25" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N25" s="25"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1453,9 +1407,7 @@
       <c r="M26" t="n" s="25">
         <v>2.8319201284251153E-27</v>
       </c>
-      <c r="N26" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N26" s="25"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1488,9 +1440,7 @@
       <c r="M27" t="n" s="25">
         <v>7.845838094343621E-30</v>
       </c>
-      <c r="N27" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N27" s="25"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1523,9 +1473,7 @@
       <c r="M28" t="n" s="25">
         <v>0.9843439963993176</v>
       </c>
-      <c r="N28" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N28" s="25"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1558,9 +1506,7 @@
       <c r="M29" t="n" s="25">
         <v>3.221872510820017E-4</v>
       </c>
-      <c r="N29" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N29" s="25"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1593,9 +1539,7 @@
       <c r="M30" t="n" s="25">
         <v>3.107068286487288E-45</v>
       </c>
-      <c r="N30" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N30" s="25"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1628,9 +1572,7 @@
       <c r="M31" t="n" s="25">
         <v>0.9999999999845792</v>
       </c>
-      <c r="N31" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N31" s="25"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1663,9 +1605,7 @@
       <c r="M32" t="n" s="25">
         <v>4.714271632480154E-49</v>
       </c>
-      <c r="N32" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N32" s="25"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1698,9 +1638,7 @@
       <c r="M33" t="n" s="25">
         <v>7.103422339502726E-67</v>
       </c>
-      <c r="N33" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N33" s="25"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1733,9 +1671,7 @@
       <c r="M34" t="n" s="25">
         <v>2.3807958740335745E-41</v>
       </c>
-      <c r="N34" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N34" s="25"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1768,9 +1704,7 @@
       <c r="M35" t="n" s="25">
         <v>8.750603762731429E-86</v>
       </c>
-      <c r="N35" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N35" s="25"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1803,9 +1737,7 @@
       <c r="M36" t="n" s="25">
         <v>3.64844787873424E-45</v>
       </c>
-      <c r="N36" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N36" s="25"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1838,9 +1770,7 @@
       <c r="M37" t="n" s="25">
         <v>2.3807958740335745E-41</v>
       </c>
-      <c r="N37" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N37" s="25"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1873,9 +1803,7 @@
       <c r="M38" t="n" s="25">
         <v>1.996499241299346E-18</v>
       </c>
-      <c r="N38" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N38" s="25"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1908,9 +1836,7 @@
       <c r="M39" t="n" s="25">
         <v>2.3807958740335745E-41</v>
       </c>
-      <c r="N39" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N39" s="25"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1943,9 +1869,7 @@
       <c r="M40" t="n" s="25">
         <v>3.3501818752546937E-45</v>
       </c>
-      <c r="N40" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N40" s="25"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1978,9 +1902,7 @@
       <c r="M41" t="n" s="25">
         <v>0.9999846906082335</v>
       </c>
-      <c r="N41" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N41" s="25"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2013,9 +1935,7 @@
       <c r="M42" t="n" s="25">
         <v>1.7497089908652932E-63</v>
       </c>
-      <c r="N42" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N42" s="25"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2048,9 +1968,7 @@
       <c r="M43" t="n" s="25">
         <v>6.0115207018076175E-40</v>
       </c>
-      <c r="N43" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N43" s="25"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2083,9 +2001,7 @@
       <c r="M44" t="n" s="25">
         <v>1.5535890479344143E-37</v>
       </c>
-      <c r="N44" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N44" s="25"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2118,9 +2034,7 @@
       <c r="M45" t="n" s="25">
         <v>1.6919047160164594E-37</v>
       </c>
-      <c r="N45" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N45" s="25"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2153,9 +2067,7 @@
       <c r="M46" t="n" s="25">
         <v>5.607489415804732E-104</v>
       </c>
-      <c r="N46" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N46" s="25"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2188,9 +2100,7 @@
       <c r="M47" t="n" s="25">
         <v>1.1984253078512962E-61</v>
       </c>
-      <c r="N47" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N47" s="25"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2223,9 +2133,7 @@
       <c r="M48" t="n" s="25">
         <v>4.651882814291105E-67</v>
       </c>
-      <c r="N48" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N48" s="25"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2258,9 +2166,7 @@
       <c r="M49" t="n" s="25">
         <v>7.224379977126422E-53</v>
       </c>
-      <c r="N49" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N49" s="25"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2293,9 +2199,7 @@
       <c r="M50" t="n" s="25">
         <v>3.056719636420922E-70</v>
       </c>
-      <c r="N50" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N50" s="25"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2328,9 +2232,7 @@
       <c r="M51" t="n" s="25">
         <v>1.9686055453038388E-97</v>
       </c>
-      <c r="N51" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N51" s="25"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2363,9 +2265,7 @@
       <c r="M52" t="n" s="25">
         <v>3.648447878734241E-45</v>
       </c>
-      <c r="N52" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N52" s="25"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2398,9 +2298,7 @@
       <c r="M53" t="n" s="25">
         <v>7.438413047147125E-11</v>
       </c>
-      <c r="N53" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N53" s="25"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2433,9 +2331,7 @@
       <c r="M54" t="n" s="25">
         <v>0.01607444309687811</v>
       </c>
-      <c r="N54" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N54" s="25"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2468,9 +2364,7 @@
       <c r="M55" t="n" s="25">
         <v>3.3386869289384774E-22</v>
       </c>
-      <c r="N55" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N55" s="25"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2503,9 +2397,7 @@
       <c r="M56" t="n" s="25">
         <v>0.9999999975283814</v>
       </c>
-      <c r="N56" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N56" s="25"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2538,9 +2430,7 @@
       <c r="M57" t="n" s="25">
         <v>3.340411226295076E-22</v>
       </c>
-      <c r="N57" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N57" s="25"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2573,9 +2463,7 @@
       <c r="M58" t="n" s="25">
         <v>0.001191681151162678</v>
       </c>
-      <c r="N58" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N58" s="25"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2608,9 +2496,7 @@
       <c r="M59" t="n" s="25">
         <v>1.2025496640863014E-14</v>
       </c>
-      <c r="N59" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N59" s="25"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2643,9 +2529,7 @@
       <c r="M60" t="n" s="25">
         <v>0.988788577326286</v>
       </c>
-      <c r="N60" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N60" s="25"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2678,9 +2562,7 @@
       <c r="M61" t="n" s="25">
         <v>3.2213185209847217E-7</v>
       </c>
-      <c r="N61" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N61" s="25"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2713,9 +2595,7 @@
       <c r="M62" t="n" s="25">
         <v>1.727310653289726E-5</v>
       </c>
-      <c r="N62" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N62" s="25"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2748,9 +2628,7 @@
       <c r="M63" t="n" s="25">
         <v>6.724361978762471E-5</v>
       </c>
-      <c r="N63" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N63" s="25"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2783,9 +2661,7 @@
       <c r="M64" t="n" s="25">
         <v>0.9780732167933316</v>
       </c>
-      <c r="N64" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N64" s="25"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2818,9 +2694,7 @@
       <c r="M65" t="n" s="25">
         <v>5.386015080037836E-5</v>
       </c>
-      <c r="N65" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N65" s="25"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2853,9 +2727,7 @@
       <c r="M66" t="n" s="25">
         <v>1.2533649485257516E-52</v>
       </c>
-      <c r="N66" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N66" s="25"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2888,9 +2760,7 @@
       <c r="M67" t="n" s="25">
         <v>3.3248794458162866E-22</v>
       </c>
-      <c r="N67" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N67" s="25"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2923,9 +2793,7 @@
       <c r="M68" t="n" s="25">
         <v>1.981583813523308E-14</v>
       </c>
-      <c r="N68" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N68" s="25"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2958,9 +2826,7 @@
       <c r="M69" t="n" s="25">
         <v>3.673181038938814E-59</v>
       </c>
-      <c r="N69" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N69" s="25"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2993,9 +2859,7 @@
       <c r="M70" t="n" s="25">
         <v>6.615482194150571E-30</v>
       </c>
-      <c r="N70" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N70" s="25"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3028,9 +2892,7 @@
       <c r="M71" t="n" s="25">
         <v>5.0799820636512944E-57</v>
       </c>
-      <c r="N71" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N71" s="25"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3063,9 +2925,7 @@
       <c r="M72" t="n" s="25">
         <v>1.0539044918759394E-29</v>
       </c>
-      <c r="N72" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N72" s="25"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3098,9 +2958,7 @@
       <c r="M73" t="n" s="25">
         <v>4.716722109692138E-50</v>
       </c>
-      <c r="N73" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N73" s="25"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3133,9 +2991,7 @@
       <c r="M74" t="n" s="25">
         <v>0.19871998960861423</v>
       </c>
-      <c r="N74" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N74" s="25"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3168,9 +3024,7 @@
       <c r="M75" t="n" s="25">
         <v>3.1666156747836724E-8</v>
       </c>
-      <c r="N75" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N75" s="25"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3203,9 +3057,7 @@
       <c r="M76" t="n" s="25">
         <v>6.650494590214074E-35</v>
       </c>
-      <c r="N76" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N76" s="25"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3238,9 +3090,7 @@
       <c r="M77" t="n" s="25">
         <v>9.339695633168149E-58</v>
       </c>
-      <c r="N77" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N77" s="25"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3273,9 +3123,7 @@
       <c r="M78" t="n" s="25">
         <v>1.1951086284001308E-22</v>
       </c>
-      <c r="N78" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N78" s="25"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3308,9 +3156,7 @@
       <c r="M79" t="n" s="25">
         <v>1.491692221161213E-23</v>
       </c>
-      <c r="N79" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N79" s="25"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3343,9 +3189,7 @@
       <c r="M80" t="n" s="25">
         <v>8.996402732906086E-42</v>
       </c>
-      <c r="N80" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N80" s="25"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3378,9 +3222,7 @@
       <c r="M81" t="n" s="25">
         <v>1.3667826358126816E-48</v>
       </c>
-      <c r="N81" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N81" s="25"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3413,9 +3255,7 @@
       <c r="M82" t="n" s="25">
         <v>2.3807959018045974E-41</v>
       </c>
-      <c r="N82" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N82" s="25"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3448,9 +3288,7 @@
       <c r="M83" t="n" s="25">
         <v>3.64844787873424E-45</v>
       </c>
-      <c r="N83" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N83" s="25"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3483,9 +3321,7 @@
       <c r="M84" t="n" s="25">
         <v>0.0023610659999643846</v>
       </c>
-      <c r="N84" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N84" s="25"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3518,9 +3354,7 @@
       <c r="M85" t="n" s="25">
         <v>0.9780732167933316</v>
       </c>
-      <c r="N85" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N85" s="25"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3553,9 +3387,7 @@
       <c r="M86" t="n" s="25">
         <v>3.222653066816859E-13</v>
       </c>
-      <c r="N86" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N86" s="25"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3588,9 +3420,7 @@
       <c r="M87" t="n" s="25">
         <v>2.660019989173678E-6</v>
       </c>
-      <c r="N87" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N87" s="25"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3623,9 +3453,7 @@
       <c r="M88" t="n" s="25">
         <v>9.989681356759325E-54</v>
       </c>
-      <c r="N88" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N88" s="25"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3658,9 +3486,7 @@
       <c r="M89" t="n" s="25">
         <v>5.825358257442112E-16</v>
       </c>
-      <c r="N89" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N89" s="25"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3693,9 +3519,7 @@
       <c r="M90" t="n" s="25">
         <v>6.3847883591353865E-12</v>
       </c>
-      <c r="N90" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N90" s="25"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3728,9 +3552,7 @@
       <c r="M91" t="n" s="25">
         <v>1.6290618999661526E-46</v>
       </c>
-      <c r="N91" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N91" s="25"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3763,9 +3585,7 @@
       <c r="M92" t="n" s="25">
         <v>4.480406254991384E-9</v>
       </c>
-      <c r="N92" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N92" s="25"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3798,9 +3618,7 @@
       <c r="M93" t="n" s="25">
         <v>3.8151584145184188E-31</v>
       </c>
-      <c r="N93" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N93" s="25"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3833,9 +3651,7 @@
       <c r="M94" t="n" s="25">
         <v>0.19871998960861423</v>
       </c>
-      <c r="N94" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N94" s="25"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3868,9 +3684,7 @@
       <c r="M95" t="n" s="25">
         <v>3.5032606716488154E-31</v>
       </c>
-      <c r="N95" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N95" s="25"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3903,9 +3717,7 @@
       <c r="M96" t="n" s="25">
         <v>4.7333695941580876E-14</v>
       </c>
-      <c r="N96" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N96" s="25"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3938,9 +3750,7 @@
       <c r="M97" t="n" s="25">
         <v>3.221872510820014E-4</v>
       </c>
-      <c r="N97" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N97" s="25"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3973,9 +3783,7 @@
       <c r="M98" t="n" s="25">
         <v>4.963473917996501E-30</v>
       </c>
-      <c r="N98" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N98" s="25"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4008,9 +3816,7 @@
       <c r="M99" t="n" s="25">
         <v>4.4734410337757674E-11</v>
       </c>
-      <c r="N99" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N99" s="25"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4043,9 +3849,7 @@
       <c r="M100" t="n" s="25">
         <v>1.2022574491634929E-52</v>
       </c>
-      <c r="N100" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N100" s="25"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4078,9 +3882,7 @@
       <c r="M101" t="n" s="25">
         <v>3.2213185209847217E-7</v>
       </c>
-      <c r="N101" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N101" s="25"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4113,9 +3915,7 @@
       <c r="M102" t="n" s="25">
         <v>1.5535890479344143E-37</v>
       </c>
-      <c r="N102" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N102" s="25"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4148,9 +3948,7 @@
       <c r="M103" t="n" s="25">
         <v>2.5927576622989036E-41</v>
       </c>
-      <c r="N103" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N103" s="25"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4183,9 +3981,7 @@
       <c r="M104" t="n" s="25">
         <v>2.3807959018045974E-41</v>
       </c>
-      <c r="N104" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N104" s="25"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -4218,9 +4014,7 @@
       <c r="M105" t="n" s="25">
         <v>1.5212542937153724E-34</v>
       </c>
-      <c r="N105" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N105" s="25"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -4253,9 +4047,7 @@
       <c r="M106" t="n" s="25">
         <v>2.3807958740335745E-41</v>
       </c>
-      <c r="N106" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N106" s="25"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -4288,9 +4080,7 @@
       <c r="M107" t="n" s="25">
         <v>1.8275767216859447E-32</v>
       </c>
-      <c r="N107" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N107" s="25"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4323,9 +4113,7 @@
       <c r="M108" t="n" s="25">
         <v>0.9999343206013739</v>
       </c>
-      <c r="N108" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N108" s="25"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4358,9 +4146,7 @@
       <c r="M109" t="n" s="25">
         <v>1.5365741039734688E-58</v>
       </c>
-      <c r="N109" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N109" s="25"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4393,9 +4179,7 @@
       <c r="M110" t="n" s="25">
         <v>7.204491301169996E-30</v>
       </c>
-      <c r="N110" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N110" s="25"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4428,9 +4212,7 @@
       <c r="M111" t="n" s="25">
         <v>3.64844787873424E-45</v>
       </c>
-      <c r="N111" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N111" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
